--- a/powerbi/powerbi_sample_dataset/complaints.xlsx
+++ b/powerbi/powerbi_sample_dataset/complaints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26522"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_34eb\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunilnair/Documents/ByteSize Trainings/curriculum/powerbi/powerbi_sample_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{1BBC7478-7600-4334-84E8-AE830E00C4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ABCFA93-D8F1-427D-AECB-F9B50AB75DF8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29B51B4-D0C5-C741-B136-C6D9386121D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="complaints" sheetId="1" r:id="rId1"/>
@@ -4242,7 +4242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5080,22 +5080,22 @@
   <dimension ref="A1:H700"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5121,9 +5121,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44053</v>
+        <v>44847</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -5147,9 +5147,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43511</v>
+        <v>44869</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -5173,9 +5173,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>42874</v>
+        <v>43979</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -5199,9 +5199,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44872</v>
+        <v>44222</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5225,9 +5225,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44648</v>
+        <v>44336</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -5251,9 +5251,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43121</v>
+        <v>44523</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -5277,9 +5277,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44516</v>
+        <v>44031</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5303,9 +5303,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44157</v>
+        <v>44772</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -5329,9 +5329,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44531</v>
+        <v>44366</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -5355,9 +5355,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44145</v>
+        <v>43486</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -5381,9 +5381,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44086</v>
+        <v>44162</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -5407,9 +5407,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44697</v>
+        <v>43927</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -5433,9 +5433,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44697</v>
+        <v>43896</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -5459,9 +5459,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44411</v>
+        <v>44208</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -5485,9 +5485,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43729</v>
+        <v>44317</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -5511,9 +5511,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44514</v>
+        <v>43866</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -5537,9 +5537,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44056</v>
+        <v>45009</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -5563,9 +5563,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>42989</v>
+        <v>44450</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -5586,9 +5586,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43776</v>
+        <v>44565</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -5612,9 +5612,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43498</v>
+        <v>44810</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -5638,9 +5638,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43593</v>
+        <v>43725</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
@@ -5664,9 +5664,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43131</v>
+        <v>44320</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
@@ -5690,9 +5690,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43045</v>
+        <v>43796</v>
       </c>
       <c r="B24" t="s">
         <v>68</v>
@@ -5716,9 +5716,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43234</v>
+        <v>44524</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -5742,9 +5742,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43238</v>
+        <v>45054</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
@@ -5768,9 +5768,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44318</v>
+        <v>43149</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -5794,9 +5794,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43089</v>
+        <v>44229</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -5820,9 +5820,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44548</v>
+        <v>44776</v>
       </c>
       <c r="B29" t="s">
         <v>45</v>
@@ -5846,9 +5846,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44453</v>
+        <v>43899</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -5872,9 +5872,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44816</v>
+        <v>43337</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -5898,9 +5898,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43642</v>
+        <v>44601</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -5924,9 +5924,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>45010</v>
+        <v>44412</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
@@ -5950,9 +5950,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43309</v>
+        <v>44886</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -5976,9 +5976,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44907</v>
+        <v>43788</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
@@ -6002,9 +6002,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43810</v>
+        <v>43230</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -6025,9 +6025,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43140</v>
+        <v>44217</v>
       </c>
       <c r="B37" t="s">
         <v>68</v>
@@ -6051,9 +6051,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44860</v>
+        <v>44885</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
@@ -6077,9 +6077,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43253</v>
+        <v>43251</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
@@ -6103,9 +6103,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43420</v>
+        <v>43372</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -6129,9 +6129,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43639</v>
+        <v>44967</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -6155,9 +6155,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43540</v>
+        <v>44694</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -6181,9 +6181,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43746</v>
+        <v>44268</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -6207,9 +6207,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>45008</v>
+        <v>43253</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
@@ -6233,9 +6233,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43425</v>
+        <v>44101</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
@@ -6256,9 +6256,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43699</v>
+        <v>45059</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
@@ -6282,9 +6282,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43353</v>
+        <v>44225</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
@@ -6308,9 +6308,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43241</v>
+        <v>44967</v>
       </c>
       <c r="B48" t="s">
         <v>42</v>
@@ -6334,9 +6334,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>42978</v>
+        <v>44277</v>
       </c>
       <c r="B49" t="s">
         <v>68</v>
@@ -6360,9 +6360,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43674</v>
+        <v>43658</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
@@ -6386,9 +6386,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>42849</v>
+        <v>44844</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -6412,9 +6412,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44738</v>
+        <v>43649</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -6438,9 +6438,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44079</v>
+        <v>44429</v>
       </c>
       <c r="B53" t="s">
         <v>42</v>
@@ -6464,9 +6464,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43570</v>
+        <v>44434</v>
       </c>
       <c r="B54" t="s">
         <v>45</v>
@@ -6490,9 +6490,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>42974</v>
+        <v>44711</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -6516,9 +6516,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44262</v>
+        <v>43973</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -6542,9 +6542,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>42841</v>
+        <v>44388</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -6568,9 +6568,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43611</v>
+        <v>44383</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -6594,9 +6594,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>42891</v>
+        <v>44891</v>
       </c>
       <c r="B59" t="s">
         <v>29</v>
@@ -6620,9 +6620,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43053</v>
+        <v>44791</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -6646,9 +6646,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44675</v>
+        <v>43276</v>
       </c>
       <c r="B61" t="s">
         <v>68</v>
@@ -6672,9 +6672,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44913</v>
+        <v>44590</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
@@ -6698,9 +6698,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44080</v>
+        <v>43957</v>
       </c>
       <c r="B63" t="s">
         <v>42</v>
@@ -6724,9 +6724,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44360</v>
+        <v>44728</v>
       </c>
       <c r="B64" t="s">
         <v>45</v>
@@ -6750,9 +6750,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43420</v>
+        <v>43400</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
@@ -6776,9 +6776,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44316</v>
+        <v>44829</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
@@ -6802,9 +6802,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43569</v>
+        <v>43137</v>
       </c>
       <c r="B67" t="s">
         <v>29</v>
@@ -6828,9 +6828,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43373</v>
+        <v>44139</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
@@ -6854,9 +6854,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>42795</v>
+        <v>44860</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
@@ -6880,9 +6880,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44380</v>
+        <v>44698</v>
       </c>
       <c r="B70" t="s">
         <v>45</v>
@@ -6906,9 +6906,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44660</v>
+        <v>44343</v>
       </c>
       <c r="B71" t="s">
         <v>42</v>
@@ -6932,9 +6932,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43753</v>
+        <v>43777</v>
       </c>
       <c r="B72" t="s">
         <v>42</v>
@@ -6958,9 +6958,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43101</v>
+        <v>43947</v>
       </c>
       <c r="B73" t="s">
         <v>42</v>
@@ -6984,9 +6984,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43576</v>
+        <v>43294</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -7010,9 +7010,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44914</v>
+        <v>43558</v>
       </c>
       <c r="B75" t="s">
         <v>68</v>
@@ -7036,9 +7036,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>42922</v>
+        <v>43620</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
@@ -7062,9 +7062,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>42922</v>
+        <v>44898</v>
       </c>
       <c r="B77" t="s">
         <v>29</v>
@@ -7088,9 +7088,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43689</v>
+        <v>44011</v>
       </c>
       <c r="B78" t="s">
         <v>29</v>
@@ -7111,9 +7111,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44865</v>
+        <v>45075</v>
       </c>
       <c r="B79" t="s">
         <v>42</v>
@@ -7137,9 +7137,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44794</v>
+        <v>43838</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -7163,9 +7163,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>44691</v>
+        <v>43164</v>
       </c>
       <c r="B81" t="s">
         <v>39</v>
@@ -7189,9 +7189,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>44589</v>
+        <v>43479</v>
       </c>
       <c r="B82" t="s">
         <v>68</v>
@@ -7215,9 +7215,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>44861</v>
+        <v>44860</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
@@ -7241,9 +7241,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43736</v>
+        <v>43614</v>
       </c>
       <c r="B84" t="s">
         <v>68</v>
@@ -7267,9 +7267,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>42936</v>
+        <v>43923</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
@@ -7293,9 +7293,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>45026</v>
+        <v>43667</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
@@ -7319,9 +7319,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>42831</v>
+        <v>44132</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -7345,9 +7345,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43269</v>
+        <v>43252</v>
       </c>
       <c r="B88" t="s">
         <v>45</v>
@@ -7371,9 +7371,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43755</v>
+        <v>44147</v>
       </c>
       <c r="B89" t="s">
         <v>39</v>
@@ -7397,9 +7397,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>42763</v>
+        <v>44029</v>
       </c>
       <c r="B90" t="s">
         <v>42</v>
@@ -7423,9 +7423,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43569</v>
+        <v>44390</v>
       </c>
       <c r="B91" t="s">
         <v>29</v>
@@ -7449,9 +7449,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43580</v>
+        <v>44401</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
@@ -7475,9 +7475,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>44115</v>
+        <v>43532</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
@@ -7501,9 +7501,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>45051</v>
+        <v>43354</v>
       </c>
       <c r="B94" t="s">
         <v>42</v>
@@ -7527,9 +7527,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>44643</v>
+        <v>45042</v>
       </c>
       <c r="B95" t="s">
         <v>68</v>
@@ -7553,9 +7553,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43246</v>
+        <v>44743</v>
       </c>
       <c r="B96" t="s">
         <v>68</v>
@@ -7579,9 +7579,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>44923</v>
+        <v>44368</v>
       </c>
       <c r="B97" t="s">
         <v>42</v>
@@ -7605,9 +7605,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43245</v>
+        <v>43717</v>
       </c>
       <c r="B98" t="s">
         <v>39</v>
@@ -7631,9 +7631,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>44057</v>
+        <v>43450</v>
       </c>
       <c r="B99" t="s">
         <v>39</v>
@@ -7657,9 +7657,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43400</v>
+        <v>43976</v>
       </c>
       <c r="B100" t="s">
         <v>68</v>
@@ -7683,9 +7683,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43532</v>
+        <v>43872</v>
       </c>
       <c r="B101" t="s">
         <v>42</v>
@@ -7709,9 +7709,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>44951</v>
+        <v>44305</v>
       </c>
       <c r="B102" t="s">
         <v>68</v>
@@ -7735,9 +7735,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>43217</v>
+        <v>44278</v>
       </c>
       <c r="B103" t="s">
         <v>39</v>
@@ -7758,9 +7758,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>44932</v>
+        <v>44523</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
@@ -7784,9 +7784,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>44264</v>
+        <v>44722</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
@@ -7810,9 +7810,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43612</v>
+        <v>45031</v>
       </c>
       <c r="B106" t="s">
         <v>29</v>
@@ -7836,9 +7836,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>44813</v>
+        <v>43607</v>
       </c>
       <c r="B107" t="s">
         <v>68</v>
@@ -7862,9 +7862,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>44798</v>
+        <v>44698</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
@@ -7888,9 +7888,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43763</v>
+        <v>45060</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
@@ -7914,9 +7914,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>43147</v>
+        <v>44988</v>
       </c>
       <c r="B110" t="s">
         <v>45</v>
@@ -7940,9 +7940,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43979</v>
+        <v>44119</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
@@ -7966,9 +7966,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43656</v>
+        <v>43629</v>
       </c>
       <c r="B112" t="s">
         <v>39</v>
@@ -7992,9 +7992,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44277</v>
+        <v>43915</v>
       </c>
       <c r="B113" t="s">
         <v>68</v>
@@ -8018,9 +8018,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43677</v>
+        <v>43294</v>
       </c>
       <c r="B114" t="s">
         <v>42</v>
@@ -8044,9 +8044,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44800</v>
+        <v>44645</v>
       </c>
       <c r="B115" t="s">
         <v>29</v>
@@ -8070,9 +8070,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>42814</v>
+        <v>44015</v>
       </c>
       <c r="B116" t="s">
         <v>68</v>
@@ -8096,9 +8096,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44211</v>
+        <v>44837</v>
       </c>
       <c r="B117" t="s">
         <v>29</v>
@@ -8122,9 +8122,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43983</v>
+        <v>45043</v>
       </c>
       <c r="B118" t="s">
         <v>39</v>
@@ -8148,9 +8148,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>44169</v>
+        <v>43775</v>
       </c>
       <c r="B119" t="s">
         <v>42</v>
@@ -8174,9 +8174,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>44993</v>
+        <v>43528</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
@@ -8197,9 +8197,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>44147</v>
+        <v>43436</v>
       </c>
       <c r="B121" t="s">
         <v>68</v>
@@ -8223,9 +8223,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43446</v>
+        <v>44522</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
@@ -8249,9 +8249,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43763</v>
+        <v>43186</v>
       </c>
       <c r="B123" t="s">
         <v>39</v>
@@ -8275,9 +8275,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>44279</v>
+        <v>43230</v>
       </c>
       <c r="B124" t="s">
         <v>29</v>
@@ -8301,9 +8301,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43301</v>
+        <v>43448</v>
       </c>
       <c r="B125" t="s">
         <v>20</v>
@@ -8327,9 +8327,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>45041</v>
+        <v>44841</v>
       </c>
       <c r="B126" t="s">
         <v>68</v>
@@ -8353,9 +8353,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43020</v>
+        <v>43749</v>
       </c>
       <c r="B127" t="s">
         <v>20</v>
@@ -8379,9 +8379,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>44265</v>
+        <v>43543</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
@@ -8405,9 +8405,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43879</v>
+        <v>43353</v>
       </c>
       <c r="B129" t="s">
         <v>39</v>
@@ -8431,9 +8431,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43581</v>
+        <v>44476</v>
       </c>
       <c r="B130" t="s">
         <v>39</v>
@@ -8457,9 +8457,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43706</v>
+        <v>44060</v>
       </c>
       <c r="B131" t="s">
         <v>42</v>
@@ -8483,9 +8483,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>44979</v>
+        <v>44418</v>
       </c>
       <c r="B132" t="s">
         <v>39</v>
@@ -8509,9 +8509,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43436</v>
+        <v>44944</v>
       </c>
       <c r="B133" t="s">
         <v>29</v>
@@ -8535,9 +8535,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>42785</v>
+        <v>43193</v>
       </c>
       <c r="B134" t="s">
         <v>45</v>
@@ -8561,9 +8561,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43762</v>
+        <v>43541</v>
       </c>
       <c r="B135" t="s">
         <v>45</v>
@@ -8587,9 +8587,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>44732</v>
+        <v>44865</v>
       </c>
       <c r="B136" t="s">
         <v>20</v>
@@ -8613,9 +8613,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>42881</v>
+        <v>44972</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
@@ -8639,9 +8639,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>42971</v>
+        <v>43290</v>
       </c>
       <c r="B138" t="s">
         <v>68</v>
@@ -8665,9 +8665,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>43181</v>
+        <v>43824</v>
       </c>
       <c r="B139" t="s">
         <v>45</v>
@@ -8691,9 +8691,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>44269</v>
+        <v>43842</v>
       </c>
       <c r="B140" t="s">
         <v>68</v>
@@ -8717,9 +8717,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>43424</v>
+        <v>44952</v>
       </c>
       <c r="B141" t="s">
         <v>29</v>
@@ -8743,9 +8743,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>43362</v>
+        <v>43851</v>
       </c>
       <c r="B142" t="s">
         <v>29</v>
@@ -8769,9 +8769,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>43859</v>
+        <v>43430</v>
       </c>
       <c r="B143" t="s">
         <v>20</v>
@@ -8795,9 +8795,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>42865</v>
+        <v>44391</v>
       </c>
       <c r="B144" t="s">
         <v>45</v>
@@ -8821,9 +8821,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>44233</v>
+        <v>43572</v>
       </c>
       <c r="B145" t="s">
         <v>20</v>
@@ -8847,9 +8847,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>43541</v>
+        <v>44579</v>
       </c>
       <c r="B146" t="s">
         <v>39</v>
@@ -8870,9 +8870,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>43341</v>
+        <v>43942</v>
       </c>
       <c r="B147" t="s">
         <v>20</v>
@@ -8896,9 +8896,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>42895</v>
+        <v>43722</v>
       </c>
       <c r="B148" t="s">
         <v>29</v>
@@ -8922,9 +8922,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>44614</v>
+        <v>43811</v>
       </c>
       <c r="B149" t="s">
         <v>42</v>
@@ -8948,9 +8948,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>44897</v>
+        <v>45139</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
@@ -8974,9 +8974,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>43802</v>
+        <v>44947</v>
       </c>
       <c r="B151" t="s">
         <v>20</v>
@@ -9000,9 +9000,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>42846</v>
+        <v>43120</v>
       </c>
       <c r="B152" t="s">
         <v>15</v>
@@ -9026,9 +9026,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>44925</v>
+        <v>44820</v>
       </c>
       <c r="B153" t="s">
         <v>45</v>
@@ -9052,9 +9052,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>44864</v>
+        <v>43447</v>
       </c>
       <c r="B154" t="s">
         <v>45</v>
@@ -9078,9 +9078,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>43242</v>
+        <v>43587</v>
       </c>
       <c r="B155" t="s">
         <v>68</v>
@@ -9104,9 +9104,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>44204</v>
+        <v>44318</v>
       </c>
       <c r="B156" t="s">
         <v>39</v>
@@ -9130,9 +9130,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>43795</v>
+        <v>44378</v>
       </c>
       <c r="B157" t="s">
         <v>15</v>
@@ -9156,9 +9156,9 @@
         <v>339</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>43127</v>
+        <v>44584</v>
       </c>
       <c r="B158" t="s">
         <v>42</v>
@@ -9182,9 +9182,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>43986</v>
+        <v>43320</v>
       </c>
       <c r="B159" t="s">
         <v>20</v>
@@ -9205,9 +9205,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>44586</v>
+        <v>43743</v>
       </c>
       <c r="B160" t="s">
         <v>20</v>
@@ -9231,9 +9231,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>43479</v>
+        <v>44621</v>
       </c>
       <c r="B161" t="s">
         <v>68</v>
@@ -9257,9 +9257,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>43023</v>
+        <v>44313</v>
       </c>
       <c r="B162" t="s">
         <v>20</v>
@@ -9283,9 +9283,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>43997</v>
+        <v>43687</v>
       </c>
       <c r="B163" t="s">
         <v>15</v>
@@ -9309,9 +9309,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>43371</v>
+        <v>44959</v>
       </c>
       <c r="B164" t="s">
         <v>20</v>
@@ -9335,9 +9335,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>42959</v>
+        <v>43646</v>
       </c>
       <c r="B165" t="s">
         <v>45</v>
@@ -9361,9 +9361,9 @@
         <v>355</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>44323</v>
+        <v>44303</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
@@ -9387,9 +9387,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>44509</v>
+        <v>44393</v>
       </c>
       <c r="B167" t="s">
         <v>45</v>
@@ -9413,9 +9413,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>44951</v>
+        <v>43198</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
@@ -9439,9 +9439,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>42785</v>
+        <v>44937</v>
       </c>
       <c r="B169" t="s">
         <v>15</v>
@@ -9465,9 +9465,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>43641</v>
+        <v>43587</v>
       </c>
       <c r="B170" t="s">
         <v>20</v>
@@ -9491,9 +9491,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>43514</v>
+        <v>44844</v>
       </c>
       <c r="B171" t="s">
         <v>68</v>
@@ -9517,9 +9517,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>43750</v>
+        <v>44536</v>
       </c>
       <c r="B172" t="s">
         <v>42</v>
@@ -9543,9 +9543,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>45020</v>
+        <v>44802</v>
       </c>
       <c r="B173" t="s">
         <v>45</v>
@@ -9569,9 +9569,9 @@
         <v>371</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>44333</v>
+        <v>44465</v>
       </c>
       <c r="B174" t="s">
         <v>45</v>
@@ -9595,9 +9595,9 @@
         <v>373</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>44605</v>
+        <v>44953</v>
       </c>
       <c r="B175" t="s">
         <v>45</v>
@@ -9621,9 +9621,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>43292</v>
+        <v>43433</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
@@ -9647,9 +9647,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>42814</v>
+        <v>43634</v>
       </c>
       <c r="B177" t="s">
         <v>42</v>
@@ -9673,9 +9673,9 @@
         <v>379</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>43340</v>
+        <v>43611</v>
       </c>
       <c r="B178" t="s">
         <v>45</v>
@@ -9699,9 +9699,9 @@
         <v>381</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>43695</v>
+        <v>44944</v>
       </c>
       <c r="B179" t="s">
         <v>20</v>
@@ -9725,9 +9725,9 @@
         <v>383</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>44294</v>
+        <v>43967</v>
       </c>
       <c r="B180" t="s">
         <v>8</v>
@@ -9751,9 +9751,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>44729</v>
+        <v>44941</v>
       </c>
       <c r="B181" t="s">
         <v>20</v>
@@ -9777,9 +9777,9 @@
         <v>387</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>43558</v>
+        <v>44619</v>
       </c>
       <c r="B182" t="s">
         <v>39</v>
@@ -9803,9 +9803,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>43082</v>
+        <v>44865</v>
       </c>
       <c r="B183" t="s">
         <v>20</v>
@@ -9829,9 +9829,9 @@
         <v>391</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>43895</v>
+        <v>44096</v>
       </c>
       <c r="B184" t="s">
         <v>39</v>
@@ -9855,9 +9855,9 @@
         <v>393</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>43024</v>
+        <v>43569</v>
       </c>
       <c r="B185" t="s">
         <v>20</v>
@@ -9878,9 +9878,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>43537</v>
+        <v>43146</v>
       </c>
       <c r="B186" t="s">
         <v>39</v>
@@ -9901,9 +9901,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>43325</v>
+        <v>44912</v>
       </c>
       <c r="B187" t="s">
         <v>20</v>
@@ -9927,9 +9927,9 @@
         <v>399</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>43000</v>
+        <v>44106</v>
       </c>
       <c r="B188" t="s">
         <v>20</v>
@@ -9953,9 +9953,9 @@
         <v>401</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>44229</v>
+        <v>43152</v>
       </c>
       <c r="B189" t="s">
         <v>68</v>
@@ -9979,9 +9979,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>44354</v>
+        <v>44653</v>
       </c>
       <c r="B190" t="s">
         <v>45</v>
@@ -10005,9 +10005,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>44241</v>
+        <v>44591</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
@@ -10031,9 +10031,9 @@
         <v>407</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>44122</v>
+        <v>43550</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
@@ -10057,9 +10057,9 @@
         <v>409</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>44102</v>
+        <v>44173</v>
       </c>
       <c r="B193" t="s">
         <v>20</v>
@@ -10083,9 +10083,9 @@
         <v>411</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>44918</v>
+        <v>44462</v>
       </c>
       <c r="B194" t="s">
         <v>8</v>
@@ -10109,9 +10109,9 @@
         <v>413</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>44077</v>
+        <v>43977</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
@@ -10135,9 +10135,9 @@
         <v>415</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>43995</v>
+        <v>43585</v>
       </c>
       <c r="B196" t="s">
         <v>42</v>
@@ -10161,9 +10161,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>43901</v>
+        <v>44456</v>
       </c>
       <c r="B197" t="s">
         <v>29</v>
@@ -10187,9 +10187,9 @@
         <v>419</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>43687</v>
+        <v>43980</v>
       </c>
       <c r="B198" t="s">
         <v>20</v>
@@ -10213,9 +10213,9 @@
         <v>421</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>43292</v>
+        <v>43930</v>
       </c>
       <c r="B199" t="s">
         <v>20</v>
@@ -10239,9 +10239,9 @@
         <v>423</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>44563</v>
+        <v>44554</v>
       </c>
       <c r="B200" t="s">
         <v>68</v>
@@ -10265,9 +10265,9 @@
         <v>425</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>43751</v>
+        <v>44425</v>
       </c>
       <c r="B201" t="s">
         <v>20</v>
@@ -10291,9 +10291,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>42911</v>
+        <v>44261</v>
       </c>
       <c r="B202" t="s">
         <v>68</v>
@@ -10317,9 +10317,9 @@
         <v>429</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>43292</v>
+        <v>44352</v>
       </c>
       <c r="B203" t="s">
         <v>20</v>
@@ -10343,9 +10343,9 @@
         <v>431</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>44265</v>
+        <v>44419</v>
       </c>
       <c r="B204" t="s">
         <v>15</v>
@@ -10369,9 +10369,9 @@
         <v>433</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>43305</v>
+        <v>43461</v>
       </c>
       <c r="B205" t="s">
         <v>20</v>
@@ -10395,9 +10395,9 @@
         <v>435</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>45041</v>
+        <v>44133</v>
       </c>
       <c r="B206" t="s">
         <v>8</v>
@@ -10421,9 +10421,9 @@
         <v>437</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>43916</v>
+        <v>44834</v>
       </c>
       <c r="B207" t="s">
         <v>42</v>
@@ -10447,9 +10447,9 @@
         <v>439</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>43665</v>
+        <v>43471</v>
       </c>
       <c r="B208" t="s">
         <v>29</v>
@@ -10473,9 +10473,9 @@
         <v>441</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>44595</v>
+        <v>44257</v>
       </c>
       <c r="B209" t="s">
         <v>8</v>
@@ -10499,9 +10499,9 @@
         <v>443</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>43617</v>
+        <v>43431</v>
       </c>
       <c r="B210" t="s">
         <v>45</v>
@@ -10525,9 +10525,9 @@
         <v>445</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>43113</v>
+        <v>43611</v>
       </c>
       <c r="B211" t="s">
         <v>29</v>
@@ -10551,9 +10551,9 @@
         <v>447</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>43508</v>
+        <v>44723</v>
       </c>
       <c r="B212" t="s">
         <v>15</v>
@@ -10577,9 +10577,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>44713</v>
+        <v>44338</v>
       </c>
       <c r="B213" t="s">
         <v>20</v>
@@ -10603,9 +10603,9 @@
         <v>451</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>44841</v>
+        <v>43180</v>
       </c>
       <c r="B214" t="s">
         <v>8</v>
@@ -10629,9 +10629,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>44579</v>
+        <v>44366</v>
       </c>
       <c r="B215" t="s">
         <v>29</v>
@@ -10655,9 +10655,9 @@
         <v>455</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>43101</v>
+        <v>44238</v>
       </c>
       <c r="B216" t="s">
         <v>8</v>
@@ -10681,9 +10681,9 @@
         <v>457</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>44377</v>
+        <v>43605</v>
       </c>
       <c r="B217" t="s">
         <v>8</v>
@@ -10707,9 +10707,9 @@
         <v>459</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>45048</v>
+        <v>44899</v>
       </c>
       <c r="B218" t="s">
         <v>45</v>
@@ -10733,9 +10733,9 @@
         <v>461</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>44756</v>
+        <v>44481</v>
       </c>
       <c r="B219" t="s">
         <v>20</v>
@@ -10759,9 +10759,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>43045</v>
+        <v>43837</v>
       </c>
       <c r="B220" t="s">
         <v>15</v>
@@ -10785,9 +10785,9 @@
         <v>465</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>45049</v>
+        <v>43651</v>
       </c>
       <c r="B221" t="s">
         <v>20</v>
@@ -10811,9 +10811,9 @@
         <v>467</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>44052</v>
+        <v>44906</v>
       </c>
       <c r="B222" t="s">
         <v>45</v>
@@ -10837,9 +10837,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>43042</v>
+        <v>43231</v>
       </c>
       <c r="B223" t="s">
         <v>20</v>
@@ -10863,9 +10863,9 @@
         <v>471</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>43932</v>
+        <v>44317</v>
       </c>
       <c r="B224" t="s">
         <v>29</v>
@@ -10886,9 +10886,9 @@
         <v>473</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>42893</v>
+        <v>44145</v>
       </c>
       <c r="B225" t="s">
         <v>29</v>
@@ -10912,9 +10912,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>44265</v>
+        <v>43294</v>
       </c>
       <c r="B226" t="s">
         <v>39</v>
@@ -10938,9 +10938,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>44036</v>
+        <v>45088</v>
       </c>
       <c r="B227" t="s">
         <v>20</v>
@@ -10964,9 +10964,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>44266</v>
+        <v>44479</v>
       </c>
       <c r="B228" t="s">
         <v>68</v>
@@ -10990,9 +10990,9 @@
         <v>481</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>44531</v>
+        <v>43450</v>
       </c>
       <c r="B229" t="s">
         <v>68</v>
@@ -11016,9 +11016,9 @@
         <v>483</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>42856</v>
+        <v>44571</v>
       </c>
       <c r="B230" t="s">
         <v>45</v>
@@ -11042,9 +11042,9 @@
         <v>485</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>44388</v>
+        <v>43282</v>
       </c>
       <c r="B231" t="s">
         <v>15</v>
@@ -11068,9 +11068,9 @@
         <v>487</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>44735</v>
+        <v>44745</v>
       </c>
       <c r="B232" t="s">
         <v>29</v>
@@ -11094,9 +11094,9 @@
         <v>489</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>44346</v>
+        <v>44873</v>
       </c>
       <c r="B233" t="s">
         <v>29</v>
@@ -11120,9 +11120,9 @@
         <v>491</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>43134</v>
+        <v>43704</v>
       </c>
       <c r="B234" t="s">
         <v>20</v>
@@ -11143,9 +11143,9 @@
         <v>493</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>43982</v>
+        <v>45118</v>
       </c>
       <c r="B235" t="s">
         <v>39</v>
@@ -11169,9 +11169,9 @@
         <v>495</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>44317</v>
+        <v>43885</v>
       </c>
       <c r="B236" t="s">
         <v>29</v>
@@ -11195,9 +11195,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>44915</v>
+        <v>43118</v>
       </c>
       <c r="B237" t="s">
         <v>39</v>
@@ -11221,9 +11221,9 @@
         <v>498</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>44506</v>
+        <v>44580</v>
       </c>
       <c r="B238" t="s">
         <v>20</v>
@@ -11247,9 +11247,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>43082</v>
+        <v>45098</v>
       </c>
       <c r="B239" t="s">
         <v>8</v>
@@ -11273,9 +11273,9 @@
         <v>502</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>42799</v>
+        <v>45024</v>
       </c>
       <c r="B240" t="s">
         <v>20</v>
@@ -11299,9 +11299,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>44957</v>
+        <v>44103</v>
       </c>
       <c r="B241" t="s">
         <v>20</v>
@@ -11325,9 +11325,9 @@
         <v>506</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>43428</v>
+        <v>43703</v>
       </c>
       <c r="B242" t="s">
         <v>45</v>
@@ -11351,9 +11351,9 @@
         <v>508</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>44087</v>
+        <v>45120</v>
       </c>
       <c r="B243" t="s">
         <v>29</v>
@@ -11377,9 +11377,9 @@
         <v>510</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>42875</v>
+        <v>43355</v>
       </c>
       <c r="B244" t="s">
         <v>8</v>
@@ -11403,9 +11403,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>44846</v>
+        <v>45026</v>
       </c>
       <c r="B245" t="s">
         <v>29</v>
@@ -11429,9 +11429,9 @@
         <v>514</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>44428</v>
+        <v>44503</v>
       </c>
       <c r="B246" t="s">
         <v>29</v>
@@ -11455,9 +11455,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>43557</v>
+        <v>43303</v>
       </c>
       <c r="B247" t="s">
         <v>45</v>
@@ -11481,9 +11481,9 @@
         <v>518</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>44052</v>
+        <v>43490</v>
       </c>
       <c r="B248" t="s">
         <v>8</v>
@@ -11507,9 +11507,9 @@
         <v>520</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>44838</v>
+        <v>44711</v>
       </c>
       <c r="B249" t="s">
         <v>45</v>
@@ -11533,9 +11533,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>44278</v>
+        <v>43142</v>
       </c>
       <c r="B250" t="s">
         <v>68</v>
@@ -11559,9 +11559,9 @@
         <v>524</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>44840</v>
+        <v>44626</v>
       </c>
       <c r="B251" t="s">
         <v>39</v>
@@ -11585,9 +11585,9 @@
         <v>526</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>44499</v>
+        <v>43249</v>
       </c>
       <c r="B252" t="s">
         <v>8</v>
@@ -11611,9 +11611,9 @@
         <v>528</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>45061</v>
+        <v>44427</v>
       </c>
       <c r="B253" t="s">
         <v>42</v>
@@ -11637,9 +11637,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>44741</v>
+        <v>43458</v>
       </c>
       <c r="B254" t="s">
         <v>45</v>
@@ -11663,9 +11663,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>43496</v>
+        <v>44125</v>
       </c>
       <c r="B255" t="s">
         <v>39</v>
@@ -11686,9 +11686,9 @@
         <v>534</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>44791</v>
+        <v>43692</v>
       </c>
       <c r="B256" t="s">
         <v>8</v>
@@ -11712,9 +11712,9 @@
         <v>536</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>43586</v>
+        <v>43562</v>
       </c>
       <c r="B257" t="s">
         <v>8</v>
@@ -11738,9 +11738,9 @@
         <v>538</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>43907</v>
+        <v>44274</v>
       </c>
       <c r="B258" t="s">
         <v>20</v>
@@ -11764,9 +11764,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>44644</v>
+        <v>44813</v>
       </c>
       <c r="B259" t="s">
         <v>45</v>
@@ -11790,9 +11790,9 @@
         <v>542</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>43036</v>
+        <v>43975</v>
       </c>
       <c r="B260" t="s">
         <v>45</v>
@@ -11816,9 +11816,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>43447</v>
+        <v>44108</v>
       </c>
       <c r="B261" t="s">
         <v>39</v>
@@ -11842,9 +11842,9 @@
         <v>546</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>44119</v>
+        <v>43466</v>
       </c>
       <c r="B262" t="s">
         <v>15</v>
@@ -11868,9 +11868,9 @@
         <v>548</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>44458</v>
+        <v>43505</v>
       </c>
       <c r="B263" t="s">
         <v>42</v>
@@ -11894,9 +11894,9 @@
         <v>550</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>43512</v>
+        <v>43215</v>
       </c>
       <c r="B264" t="s">
         <v>68</v>
@@ -11920,9 +11920,9 @@
         <v>552</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>44202</v>
+        <v>43647</v>
       </c>
       <c r="B265" t="s">
         <v>42</v>
@@ -11946,9 +11946,9 @@
         <v>554</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>42968</v>
+        <v>45103</v>
       </c>
       <c r="B266" t="s">
         <v>45</v>
@@ -11972,9 +11972,9 @@
         <v>556</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>42779</v>
+        <v>43586</v>
       </c>
       <c r="B267" t="s">
         <v>15</v>
@@ -11998,9 +11998,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>43910</v>
+        <v>43832</v>
       </c>
       <c r="B268" t="s">
         <v>68</v>
@@ -12021,9 +12021,9 @@
         <v>559</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>43258</v>
+        <v>43735</v>
       </c>
       <c r="B269" t="s">
         <v>68</v>
@@ -12047,9 +12047,9 @@
         <v>561</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>43301</v>
+        <v>43436</v>
       </c>
       <c r="B270" t="s">
         <v>42</v>
@@ -12073,9 +12073,9 @@
         <v>563</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>42884</v>
+        <v>43135</v>
       </c>
       <c r="B271" t="s">
         <v>15</v>
@@ -12099,9 +12099,9 @@
         <v>565</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>43142</v>
+        <v>44697</v>
       </c>
       <c r="B272" t="s">
         <v>42</v>
@@ -12125,9 +12125,9 @@
         <v>567</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>43565</v>
+        <v>43855</v>
       </c>
       <c r="B273" t="s">
         <v>29</v>
@@ -12151,9 +12151,9 @@
         <v>569</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>43944</v>
+        <v>44037</v>
       </c>
       <c r="B274" t="s">
         <v>39</v>
@@ -12177,9 +12177,9 @@
         <v>571</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>43282</v>
+        <v>44421</v>
       </c>
       <c r="B275" t="s">
         <v>29</v>
@@ -12203,9 +12203,9 @@
         <v>573</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>43086</v>
+        <v>44294</v>
       </c>
       <c r="B276" t="s">
         <v>15</v>
@@ -12229,9 +12229,9 @@
         <v>575</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>42803</v>
+        <v>43834</v>
       </c>
       <c r="B277" t="s">
         <v>15</v>
@@ -12255,9 +12255,9 @@
         <v>577</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>43950</v>
+        <v>44840</v>
       </c>
       <c r="B278" t="s">
         <v>8</v>
@@ -12281,9 +12281,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>42881</v>
+        <v>43595</v>
       </c>
       <c r="B279" t="s">
         <v>39</v>
@@ -12307,9 +12307,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>43110</v>
+        <v>45125</v>
       </c>
       <c r="B280" t="s">
         <v>8</v>
@@ -12333,9 +12333,9 @@
         <v>583</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>43637</v>
+        <v>44124</v>
       </c>
       <c r="B281" t="s">
         <v>15</v>
@@ -12359,9 +12359,9 @@
         <v>585</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>43065</v>
+        <v>44558</v>
       </c>
       <c r="B282" t="s">
         <v>8</v>
@@ -12385,9 +12385,9 @@
         <v>587</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>42860</v>
+        <v>44411</v>
       </c>
       <c r="B283" t="s">
         <v>45</v>
@@ -12411,9 +12411,9 @@
         <v>589</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>43338</v>
+        <v>43545</v>
       </c>
       <c r="B284" t="s">
         <v>29</v>
@@ -12437,9 +12437,9 @@
         <v>591</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>42980</v>
+        <v>43929</v>
       </c>
       <c r="B285" t="s">
         <v>68</v>
@@ -12463,9 +12463,9 @@
         <v>593</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>43015</v>
+        <v>43604</v>
       </c>
       <c r="B286" t="s">
         <v>39</v>
@@ -12489,9 +12489,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>43304</v>
+        <v>44167</v>
       </c>
       <c r="B287" t="s">
         <v>20</v>
@@ -12515,9 +12515,9 @@
         <v>597</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>44157</v>
+        <v>44598</v>
       </c>
       <c r="B288" t="s">
         <v>39</v>
@@ -12541,9 +12541,9 @@
         <v>599</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>42901</v>
+        <v>43642</v>
       </c>
       <c r="B289" t="s">
         <v>42</v>
@@ -12567,9 +12567,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>44296</v>
+        <v>43431</v>
       </c>
       <c r="B290" t="s">
         <v>39</v>
@@ -12590,9 +12590,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>43924</v>
+        <v>44880</v>
       </c>
       <c r="B291" t="s">
         <v>8</v>
@@ -12616,9 +12616,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>43847</v>
+        <v>45095</v>
       </c>
       <c r="B292" t="s">
         <v>45</v>
@@ -12642,9 +12642,9 @@
         <v>607</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>42858</v>
+        <v>43566</v>
       </c>
       <c r="B293" t="s">
         <v>39</v>
@@ -12668,9 +12668,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>42911</v>
+        <v>44667</v>
       </c>
       <c r="B294" t="s">
         <v>45</v>
@@ -12694,9 +12694,9 @@
         <v>611</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>44836</v>
+        <v>44318</v>
       </c>
       <c r="B295" t="s">
         <v>45</v>
@@ -12720,9 +12720,9 @@
         <v>613</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>44481</v>
+        <v>44435</v>
       </c>
       <c r="B296" t="s">
         <v>42</v>
@@ -12746,9 +12746,9 @@
         <v>615</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>43548</v>
+        <v>44272</v>
       </c>
       <c r="B297" t="s">
         <v>68</v>
@@ -12772,9 +12772,9 @@
         <v>617</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>44162</v>
+        <v>44851</v>
       </c>
       <c r="B298" t="s">
         <v>8</v>
@@ -12798,9 +12798,9 @@
         <v>619</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>44776</v>
+        <v>43292</v>
       </c>
       <c r="B299" t="s">
         <v>68</v>
@@ -12824,9 +12824,9 @@
         <v>621</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>43094</v>
+        <v>43237</v>
       </c>
       <c r="B300" t="s">
         <v>39</v>
@@ -12850,9 +12850,9 @@
         <v>623</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>44798</v>
+        <v>44443</v>
       </c>
       <c r="B301" t="s">
         <v>39</v>
@@ -12876,9 +12876,9 @@
         <v>625</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>44375</v>
+        <v>45025</v>
       </c>
       <c r="B302" t="s">
         <v>8</v>
@@ -12902,9 +12902,9 @@
         <v>627</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>43743</v>
+        <v>43864</v>
       </c>
       <c r="B303" t="s">
         <v>39</v>
@@ -12928,9 +12928,9 @@
         <v>629</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>43181</v>
+        <v>44588</v>
       </c>
       <c r="B304" t="s">
         <v>42</v>
@@ -12954,9 +12954,9 @@
         <v>631</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>44453</v>
+        <v>43204</v>
       </c>
       <c r="B305" t="s">
         <v>42</v>
@@ -12980,9 +12980,9 @@
         <v>633</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>43444</v>
+        <v>44134</v>
       </c>
       <c r="B306" t="s">
         <v>8</v>
@@ -13006,9 +13006,9 @@
         <v>635</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>43078</v>
+        <v>45016</v>
       </c>
       <c r="B307" t="s">
         <v>42</v>
@@ -13032,9 +13032,9 @@
         <v>637</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>43646</v>
+        <v>44180</v>
       </c>
       <c r="B308" t="s">
         <v>29</v>
@@ -13058,9 +13058,9 @@
         <v>639</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>44538</v>
+        <v>44994</v>
       </c>
       <c r="B309" t="s">
         <v>15</v>
@@ -13084,9 +13084,9 @@
         <v>641</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>44315</v>
+        <v>44922</v>
       </c>
       <c r="B310" t="s">
         <v>15</v>
@@ -13110,9 +13110,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>43456</v>
+        <v>43881</v>
       </c>
       <c r="B311" t="s">
         <v>15</v>
@@ -13136,9 +13136,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>44165</v>
+        <v>44028</v>
       </c>
       <c r="B312" t="s">
         <v>39</v>
@@ -13162,9 +13162,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>44719</v>
+        <v>45079</v>
       </c>
       <c r="B313" t="s">
         <v>68</v>
@@ -13188,9 +13188,9 @@
         <v>649</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>43949</v>
+        <v>43997</v>
       </c>
       <c r="B314" t="s">
         <v>42</v>
@@ -13211,9 +13211,9 @@
         <v>651</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>43824</v>
+        <v>44515</v>
       </c>
       <c r="B315" t="s">
         <v>29</v>
@@ -13237,9 +13237,9 @@
         <v>653</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>45056</v>
+        <v>44427</v>
       </c>
       <c r="B316" t="s">
         <v>45</v>
@@ -13263,9 +13263,9 @@
         <v>655</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>43201</v>
+        <v>44548</v>
       </c>
       <c r="B317" t="s">
         <v>42</v>
@@ -13289,9 +13289,9 @@
         <v>657</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>43159</v>
+        <v>43909</v>
       </c>
       <c r="B318" t="s">
         <v>39</v>
@@ -13315,9 +13315,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>44569</v>
+        <v>43202</v>
       </c>
       <c r="B319" t="s">
         <v>68</v>
@@ -13341,9 +13341,9 @@
         <v>660</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>42803</v>
+        <v>43580</v>
       </c>
       <c r="B320" t="s">
         <v>45</v>
@@ -13367,9 +13367,9 @@
         <v>662</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>42870</v>
+        <v>44590</v>
       </c>
       <c r="B321" t="s">
         <v>39</v>
@@ -13393,9 +13393,9 @@
         <v>664</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>43775</v>
+        <v>43762</v>
       </c>
       <c r="B322" t="s">
         <v>15</v>
@@ -13419,9 +13419,9 @@
         <v>666</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>43398</v>
+        <v>43595</v>
       </c>
       <c r="B323" t="s">
         <v>68</v>
@@ -13445,9 +13445,9 @@
         <v>668</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>43500</v>
+        <v>43330</v>
       </c>
       <c r="B324" t="s">
         <v>20</v>
@@ -13471,9 +13471,9 @@
         <v>670</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>43744</v>
+        <v>44127</v>
       </c>
       <c r="B325" t="s">
         <v>68</v>
@@ -13497,9 +13497,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>43788</v>
+        <v>43147</v>
       </c>
       <c r="B326" t="s">
         <v>68</v>
@@ -13523,9 +13523,9 @@
         <v>673</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>43024</v>
+        <v>44537</v>
       </c>
       <c r="B327" t="s">
         <v>29</v>
@@ -13549,9 +13549,9 @@
         <v>675</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>44837</v>
+        <v>43697</v>
       </c>
       <c r="B328" t="s">
         <v>20</v>
@@ -13575,9 +13575,9 @@
         <v>677</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>44776</v>
+        <v>44325</v>
       </c>
       <c r="B329" t="s">
         <v>29</v>
@@ -13598,9 +13598,9 @@
         <v>679</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>43131</v>
+        <v>43648</v>
       </c>
       <c r="B330" t="s">
         <v>15</v>
@@ -13624,9 +13624,9 @@
         <v>681</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>43648</v>
+        <v>44079</v>
       </c>
       <c r="B331" t="s">
         <v>8</v>
@@ -13650,9 +13650,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>43882</v>
+        <v>44543</v>
       </c>
       <c r="B332" t="s">
         <v>42</v>
@@ -13676,9 +13676,9 @@
         <v>685</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>45048</v>
+        <v>43414</v>
       </c>
       <c r="B333" t="s">
         <v>29</v>
@@ -13702,9 +13702,9 @@
         <v>687</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>44281</v>
+        <v>44609</v>
       </c>
       <c r="B334" t="s">
         <v>42</v>
@@ -13728,9 +13728,9 @@
         <v>689</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>43460</v>
+        <v>44184</v>
       </c>
       <c r="B335" t="s">
         <v>15</v>
@@ -13754,9 +13754,9 @@
         <v>691</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>43627</v>
+        <v>44688</v>
       </c>
       <c r="B336" t="s">
         <v>20</v>
@@ -13780,9 +13780,9 @@
         <v>693</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>44227</v>
+        <v>43612</v>
       </c>
       <c r="B337" t="s">
         <v>39</v>
@@ -13806,9 +13806,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>43574</v>
+        <v>43503</v>
       </c>
       <c r="B338" t="s">
         <v>29</v>
@@ -13832,9 +13832,9 @@
         <v>697</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>44776</v>
+        <v>43262</v>
       </c>
       <c r="B339" t="s">
         <v>45</v>
@@ -13858,9 +13858,9 @@
         <v>699</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>43494</v>
+        <v>45080</v>
       </c>
       <c r="B340" t="s">
         <v>39</v>
@@ -13884,9 +13884,9 @@
         <v>701</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>44020</v>
+        <v>43739</v>
       </c>
       <c r="B341" t="s">
         <v>45</v>
@@ -13910,9 +13910,9 @@
         <v>703</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>44971</v>
+        <v>43570</v>
       </c>
       <c r="B342" t="s">
         <v>68</v>
@@ -13936,9 +13936,9 @@
         <v>705</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>45022</v>
+        <v>44590</v>
       </c>
       <c r="B343" t="s">
         <v>15</v>
@@ -13962,9 +13962,9 @@
         <v>707</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>43736</v>
+        <v>44985</v>
       </c>
       <c r="B344" t="s">
         <v>8</v>
@@ -13988,9 +13988,9 @@
         <v>709</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>44040</v>
+        <v>44643</v>
       </c>
       <c r="B345" t="s">
         <v>20</v>
@@ -14014,9 +14014,9 @@
         <v>711</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>44403</v>
+        <v>43357</v>
       </c>
       <c r="B346" t="s">
         <v>42</v>
@@ -14040,9 +14040,9 @@
         <v>713</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>44257</v>
+        <v>43736</v>
       </c>
       <c r="B347" t="s">
         <v>45</v>
@@ -14066,9 +14066,9 @@
         <v>715</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>43107</v>
+        <v>43675</v>
       </c>
       <c r="B348" t="s">
         <v>45</v>
@@ -14092,9 +14092,9 @@
         <v>717</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>42901</v>
+        <v>44151</v>
       </c>
       <c r="B349" t="s">
         <v>8</v>
@@ -14118,9 +14118,9 @@
         <v>719</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>43158</v>
+        <v>45002</v>
       </c>
       <c r="B350" t="s">
         <v>29</v>
@@ -14144,9 +14144,9 @@
         <v>721</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>43532</v>
+        <v>45125</v>
       </c>
       <c r="B351" t="s">
         <v>39</v>
@@ -14170,9 +14170,9 @@
         <v>723</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>43929</v>
+        <v>43232</v>
       </c>
       <c r="B352" t="s">
         <v>42</v>
@@ -14196,9 +14196,9 @@
         <v>725</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>43895</v>
+        <v>45070</v>
       </c>
       <c r="B353" t="s">
         <v>42</v>
@@ -14222,9 +14222,9 @@
         <v>727</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>43153</v>
+        <v>44652</v>
       </c>
       <c r="B354" t="s">
         <v>20</v>
@@ -14248,9 +14248,9 @@
         <v>729</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>43717</v>
+        <v>43540</v>
       </c>
       <c r="B355" t="s">
         <v>68</v>
@@ -14274,9 +14274,9 @@
         <v>731</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>44755</v>
+        <v>44104</v>
       </c>
       <c r="B356" t="s">
         <v>42</v>
@@ -14300,9 +14300,9 @@
         <v>733</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>43224</v>
+        <v>43679</v>
       </c>
       <c r="B357" t="s">
         <v>8</v>
@@ -14326,9 +14326,9 @@
         <v>735</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>44829</v>
+        <v>44448</v>
       </c>
       <c r="B358" t="s">
         <v>68</v>
@@ -14352,9 +14352,9 @@
         <v>737</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>42934</v>
+        <v>44137</v>
       </c>
       <c r="B359" t="s">
         <v>68</v>
@@ -14378,9 +14378,9 @@
         <v>739</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>44790</v>
+        <v>45005</v>
       </c>
       <c r="B360" t="s">
         <v>39</v>
@@ -14404,9 +14404,9 @@
         <v>741</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>43194</v>
+        <v>43137</v>
       </c>
       <c r="B361" t="s">
         <v>20</v>
@@ -14430,9 +14430,9 @@
         <v>743</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>42788</v>
+        <v>43735</v>
       </c>
       <c r="B362" t="s">
         <v>8</v>
@@ -14456,9 +14456,9 @@
         <v>745</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>44206</v>
+        <v>44478</v>
       </c>
       <c r="B363" t="s">
         <v>39</v>
@@ -14482,9 +14482,9 @@
         <v>747</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>44298</v>
+        <v>43863</v>
       </c>
       <c r="B364" t="s">
         <v>8</v>
@@ -14508,9 +14508,9 @@
         <v>749</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>44031</v>
+        <v>43388</v>
       </c>
       <c r="B365" t="s">
         <v>15</v>
@@ -14534,9 +14534,9 @@
         <v>751</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>44671</v>
+        <v>43783</v>
       </c>
       <c r="B366" t="s">
         <v>20</v>
@@ -14560,9 +14560,9 @@
         <v>753</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>44280</v>
+        <v>44158</v>
       </c>
       <c r="B367" t="s">
         <v>45</v>
@@ -14586,9 +14586,9 @@
         <v>755</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>44973</v>
+        <v>43501</v>
       </c>
       <c r="B368" t="s">
         <v>8</v>
@@ -14612,9 +14612,9 @@
         <v>757</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>43808</v>
+        <v>44634</v>
       </c>
       <c r="B369" t="s">
         <v>42</v>
@@ -14638,9 +14638,9 @@
         <v>759</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
-        <v>44042</v>
+        <v>44228</v>
       </c>
       <c r="B370" t="s">
         <v>29</v>
@@ -14664,9 +14664,9 @@
         <v>761</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>43774</v>
+        <v>44272</v>
       </c>
       <c r="B371" t="s">
         <v>15</v>
@@ -14687,9 +14687,9 @@
         <v>763</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>42953</v>
+        <v>43583</v>
       </c>
       <c r="B372" t="s">
         <v>8</v>
@@ -14713,9 +14713,9 @@
         <v>765</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>44514</v>
+        <v>43699</v>
       </c>
       <c r="B373" t="s">
         <v>29</v>
@@ -14739,9 +14739,9 @@
         <v>767</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>44049</v>
+        <v>43471</v>
       </c>
       <c r="B374" t="s">
         <v>29</v>
@@ -14765,9 +14765,9 @@
         <v>769</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
-        <v>44472</v>
+        <v>44783</v>
       </c>
       <c r="B375" t="s">
         <v>20</v>
@@ -14791,9 +14791,9 @@
         <v>771</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>43188</v>
+        <v>44428</v>
       </c>
       <c r="B376" t="s">
         <v>42</v>
@@ -14817,9 +14817,9 @@
         <v>773</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
-        <v>43431</v>
+        <v>45099</v>
       </c>
       <c r="B377" t="s">
         <v>39</v>
@@ -14843,9 +14843,9 @@
         <v>775</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>43809</v>
+        <v>43527</v>
       </c>
       <c r="B378" t="s">
         <v>29</v>
@@ -14869,9 +14869,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
-        <v>43277</v>
+        <v>44143</v>
       </c>
       <c r="B379" t="s">
         <v>45</v>
@@ -14895,9 +14895,9 @@
         <v>778</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>43916</v>
+        <v>45084</v>
       </c>
       <c r="B380" t="s">
         <v>45</v>
@@ -14921,9 +14921,9 @@
         <v>780</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>44810</v>
+        <v>43834</v>
       </c>
       <c r="B381" t="s">
         <v>39</v>
@@ -14947,9 +14947,9 @@
         <v>782</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>42797</v>
+        <v>44510</v>
       </c>
       <c r="B382" t="s">
         <v>20</v>
@@ -14973,9 +14973,9 @@
         <v>784</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
-        <v>42783</v>
+        <v>43463</v>
       </c>
       <c r="B383" t="s">
         <v>8</v>
@@ -14999,9 +14999,9 @@
         <v>786</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>42954</v>
+        <v>44148</v>
       </c>
       <c r="B384" t="s">
         <v>45</v>
@@ -15025,9 +15025,9 @@
         <v>788</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>43658</v>
+        <v>43183</v>
       </c>
       <c r="B385" t="s">
         <v>15</v>
@@ -15051,9 +15051,9 @@
         <v>790</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>43356</v>
+        <v>44495</v>
       </c>
       <c r="B386" t="s">
         <v>8</v>
@@ -15077,9 +15077,9 @@
         <v>792</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>43473</v>
+        <v>43600</v>
       </c>
       <c r="B387" t="s">
         <v>15</v>
@@ -15103,9 +15103,9 @@
         <v>794</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>44123</v>
+        <v>43271</v>
       </c>
       <c r="B388" t="s">
         <v>39</v>
@@ -15129,9 +15129,9 @@
         <v>796</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>42958</v>
+        <v>43382</v>
       </c>
       <c r="B389" t="s">
         <v>15</v>
@@ -15155,9 +15155,9 @@
         <v>798</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <v>44469</v>
+        <v>44574</v>
       </c>
       <c r="B390" t="s">
         <v>42</v>
@@ -15181,9 +15181,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>43568</v>
+        <v>45022</v>
       </c>
       <c r="B391" t="s">
         <v>29</v>
@@ -15207,9 +15207,9 @@
         <v>802</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>44451</v>
+        <v>43115</v>
       </c>
       <c r="B392" t="s">
         <v>8</v>
@@ -15233,9 +15233,9 @@
         <v>804</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>44583</v>
+        <v>44072</v>
       </c>
       <c r="B393" t="s">
         <v>29</v>
@@ -15256,9 +15256,9 @@
         <v>806</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <v>44402</v>
+        <v>44099</v>
       </c>
       <c r="B394" t="s">
         <v>15</v>
@@ -15282,9 +15282,9 @@
         <v>808</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>42870</v>
+        <v>43880</v>
       </c>
       <c r="B395" t="s">
         <v>8</v>
@@ -15308,9 +15308,9 @@
         <v>810</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
-        <v>44819</v>
+        <v>43101</v>
       </c>
       <c r="B396" t="s">
         <v>39</v>
@@ -15334,9 +15334,9 @@
         <v>784</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
-        <v>42952</v>
+        <v>44056</v>
       </c>
       <c r="B397" t="s">
         <v>20</v>
@@ -15360,9 +15360,9 @@
         <v>813</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
-        <v>42837</v>
+        <v>44026</v>
       </c>
       <c r="B398" t="s">
         <v>8</v>
@@ -15383,9 +15383,9 @@
         <v>815</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <v>44397</v>
+        <v>44820</v>
       </c>
       <c r="B399" t="s">
         <v>45</v>
@@ -15409,9 +15409,9 @@
         <v>817</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <v>43816</v>
+        <v>45090</v>
       </c>
       <c r="B400" t="s">
         <v>45</v>
@@ -15435,9 +15435,9 @@
         <v>819</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <v>44785</v>
+        <v>43907</v>
       </c>
       <c r="B401" t="s">
         <v>15</v>
@@ -15461,9 +15461,9 @@
         <v>821</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <v>44089</v>
+        <v>43125</v>
       </c>
       <c r="B402" t="s">
         <v>45</v>
@@ -15487,9 +15487,9 @@
         <v>823</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <v>43547</v>
+        <v>45047</v>
       </c>
       <c r="B403" t="s">
         <v>8</v>
@@ -15513,9 +15513,9 @@
         <v>825</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <v>44039</v>
+        <v>44806</v>
       </c>
       <c r="B404" t="s">
         <v>15</v>
@@ -15539,9 +15539,9 @@
         <v>792</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <v>43276</v>
+        <v>44999</v>
       </c>
       <c r="B405" t="s">
         <v>20</v>
@@ -15565,9 +15565,9 @@
         <v>828</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <v>43548</v>
+        <v>44408</v>
       </c>
       <c r="B406" t="s">
         <v>39</v>
@@ -15591,9 +15591,9 @@
         <v>830</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <v>44220</v>
+        <v>43208</v>
       </c>
       <c r="B407" t="s">
         <v>39</v>
@@ -15617,9 +15617,9 @@
         <v>832</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
-        <v>44332</v>
+        <v>43683</v>
       </c>
       <c r="B408" t="s">
         <v>45</v>
@@ -15643,9 +15643,9 @@
         <v>834</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>43620</v>
+        <v>43883</v>
       </c>
       <c r="B409" t="s">
         <v>39</v>
@@ -15669,9 +15669,9 @@
         <v>836</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <v>44220</v>
+        <v>44205</v>
       </c>
       <c r="B410" t="s">
         <v>45</v>
@@ -15695,9 +15695,9 @@
         <v>838</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>44459</v>
+        <v>43584</v>
       </c>
       <c r="B411" t="s">
         <v>20</v>
@@ -15721,9 +15721,9 @@
         <v>840</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
-        <v>44895</v>
+        <v>44289</v>
       </c>
       <c r="B412" t="s">
         <v>39</v>
@@ -15747,9 +15747,9 @@
         <v>842</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>43057</v>
+        <v>43487</v>
       </c>
       <c r="B413" t="s">
         <v>42</v>
@@ -15773,9 +15773,9 @@
         <v>844</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
-        <v>44167</v>
+        <v>43244</v>
       </c>
       <c r="B414" t="s">
         <v>8</v>
@@ -15799,9 +15799,9 @@
         <v>846</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>44959</v>
+        <v>44122</v>
       </c>
       <c r="B415" t="s">
         <v>8</v>
@@ -15825,9 +15825,9 @@
         <v>848</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
-        <v>43827</v>
+        <v>44730</v>
       </c>
       <c r="B416" t="s">
         <v>45</v>
@@ -15851,9 +15851,9 @@
         <v>850</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>44978</v>
+        <v>43281</v>
       </c>
       <c r="B417" t="s">
         <v>29</v>
@@ -15877,9 +15877,9 @@
         <v>852</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
-        <v>43357</v>
+        <v>43882</v>
       </c>
       <c r="B418" t="s">
         <v>42</v>
@@ -15903,9 +15903,9 @@
         <v>854</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
-        <v>43305</v>
+        <v>43466</v>
       </c>
       <c r="B419" t="s">
         <v>42</v>
@@ -15929,9 +15929,9 @@
         <v>856</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
-        <v>43794</v>
+        <v>44917</v>
       </c>
       <c r="B420" t="s">
         <v>8</v>
@@ -15955,9 +15955,9 @@
         <v>850</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>42882</v>
+        <v>44260</v>
       </c>
       <c r="B421" t="s">
         <v>29</v>
@@ -15981,9 +15981,9 @@
         <v>859</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>43930</v>
+        <v>44822</v>
       </c>
       <c r="B422" t="s">
         <v>15</v>
@@ -16007,9 +16007,9 @@
         <v>861</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>44706</v>
+        <v>44442</v>
       </c>
       <c r="B423" t="s">
         <v>39</v>
@@ -16033,9 +16033,9 @@
         <v>863</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <v>44639</v>
+        <v>44309</v>
       </c>
       <c r="B424" t="s">
         <v>68</v>
@@ -16059,9 +16059,9 @@
         <v>865</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>42782</v>
+        <v>43375</v>
       </c>
       <c r="B425" t="s">
         <v>20</v>
@@ -16085,9 +16085,9 @@
         <v>867</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <v>43102</v>
+        <v>44019</v>
       </c>
       <c r="B426" t="s">
         <v>20</v>
@@ -16111,9 +16111,9 @@
         <v>869</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <v>44934</v>
+        <v>45122</v>
       </c>
       <c r="B427" t="s">
         <v>39</v>
@@ -16137,9 +16137,9 @@
         <v>871</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <v>43295</v>
+        <v>43319</v>
       </c>
       <c r="B428" t="s">
         <v>39</v>
@@ -16163,9 +16163,9 @@
         <v>873</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <v>44645</v>
+        <v>43709</v>
       </c>
       <c r="B429" t="s">
         <v>42</v>
@@ -16189,9 +16189,9 @@
         <v>875</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <v>42927</v>
+        <v>43401</v>
       </c>
       <c r="B430" t="s">
         <v>29</v>
@@ -16215,9 +16215,9 @@
         <v>877</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <v>44677</v>
+        <v>43533</v>
       </c>
       <c r="B431" t="s">
         <v>42</v>
@@ -16241,9 +16241,9 @@
         <v>879</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>44112</v>
+        <v>44545</v>
       </c>
       <c r="B432" t="s">
         <v>45</v>
@@ -16264,9 +16264,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>43331</v>
+        <v>43840</v>
       </c>
       <c r="B433" t="s">
         <v>20</v>
@@ -16290,9 +16290,9 @@
         <v>882</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>44923</v>
+        <v>43433</v>
       </c>
       <c r="B434" t="s">
         <v>20</v>
@@ -16316,9 +16316,9 @@
         <v>884</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>44718</v>
+        <v>44939</v>
       </c>
       <c r="B435" t="s">
         <v>8</v>
@@ -16342,9 +16342,9 @@
         <v>886</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>44320</v>
+        <v>43396</v>
       </c>
       <c r="B436" t="s">
         <v>20</v>
@@ -16368,9 +16368,9 @@
         <v>888</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>45034</v>
+        <v>44525</v>
       </c>
       <c r="B437" t="s">
         <v>8</v>
@@ -16394,9 +16394,9 @@
         <v>890</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>43038</v>
+        <v>43175</v>
       </c>
       <c r="B438" t="s">
         <v>45</v>
@@ -16420,9 +16420,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>44462</v>
+        <v>44109</v>
       </c>
       <c r="B439" t="s">
         <v>20</v>
@@ -16446,9 +16446,9 @@
         <v>893</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>43631</v>
+        <v>45109</v>
       </c>
       <c r="B440" t="s">
         <v>8</v>
@@ -16469,9 +16469,9 @@
         <v>895</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>44032</v>
+        <v>44045</v>
       </c>
       <c r="B441" t="s">
         <v>15</v>
@@ -16495,9 +16495,9 @@
         <v>897</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>44583</v>
+        <v>45017</v>
       </c>
       <c r="B442" t="s">
         <v>42</v>
@@ -16521,9 +16521,9 @@
         <v>899</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>43037</v>
+        <v>44284</v>
       </c>
       <c r="B443" t="s">
         <v>15</v>
@@ -16547,9 +16547,9 @@
         <v>901</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>43025</v>
+        <v>45074</v>
       </c>
       <c r="B444" t="s">
         <v>42</v>
@@ -16573,9 +16573,9 @@
         <v>903</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>44186</v>
+        <v>43384</v>
       </c>
       <c r="B445" t="s">
         <v>8</v>
@@ -16599,9 +16599,9 @@
         <v>905</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>43247</v>
+        <v>44289</v>
       </c>
       <c r="B446" t="s">
         <v>42</v>
@@ -16625,9 +16625,9 @@
         <v>907</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>44394</v>
+        <v>44630</v>
       </c>
       <c r="B447" t="s">
         <v>42</v>
@@ -16651,9 +16651,9 @@
         <v>909</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>44334</v>
+        <v>43757</v>
       </c>
       <c r="B448" t="s">
         <v>15</v>
@@ -16677,9 +16677,9 @@
         <v>911</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>44142</v>
+        <v>44106</v>
       </c>
       <c r="B449" t="s">
         <v>29</v>
@@ -16703,9 +16703,9 @@
         <v>913</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <v>43519</v>
+        <v>43568</v>
       </c>
       <c r="B450" t="s">
         <v>39</v>
@@ -16729,9 +16729,9 @@
         <v>915</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <v>44498</v>
+        <v>45093</v>
       </c>
       <c r="B451" t="s">
         <v>15</v>
@@ -16755,9 +16755,9 @@
         <v>917</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
-        <v>44049</v>
+        <v>44001</v>
       </c>
       <c r="B452" t="s">
         <v>68</v>
@@ -16781,9 +16781,9 @@
         <v>919</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>44154</v>
+        <v>43981</v>
       </c>
       <c r="B453" t="s">
         <v>45</v>
@@ -16807,9 +16807,9 @@
         <v>921</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>44105</v>
+        <v>43523</v>
       </c>
       <c r="B454" t="s">
         <v>39</v>
@@ -16833,9 +16833,9 @@
         <v>923</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
-        <v>44124</v>
+        <v>43105</v>
       </c>
       <c r="B455" t="s">
         <v>39</v>
@@ -16859,9 +16859,9 @@
         <v>925</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
-        <v>43367</v>
+        <v>44559</v>
       </c>
       <c r="B456" t="s">
         <v>42</v>
@@ -16885,9 +16885,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
-        <v>44727</v>
+        <v>43990</v>
       </c>
       <c r="B457" t="s">
         <v>68</v>
@@ -16911,9 +16911,9 @@
         <v>928</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
-        <v>43960</v>
+        <v>43436</v>
       </c>
       <c r="B458" t="s">
         <v>20</v>
@@ -16937,9 +16937,9 @@
         <v>930</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
-        <v>43532</v>
+        <v>43121</v>
       </c>
       <c r="B459" t="s">
         <v>29</v>
@@ -16963,9 +16963,9 @@
         <v>932</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
-        <v>44515</v>
+        <v>44970</v>
       </c>
       <c r="B460" t="s">
         <v>42</v>
@@ -16989,9 +16989,9 @@
         <v>934</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
-        <v>44090</v>
+        <v>44549</v>
       </c>
       <c r="B461" t="s">
         <v>8</v>
@@ -17015,9 +17015,9 @@
         <v>936</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>43424</v>
+        <v>43519</v>
       </c>
       <c r="B462" t="s">
         <v>15</v>
@@ -17041,9 +17041,9 @@
         <v>938</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
-        <v>44089</v>
+        <v>44898</v>
       </c>
       <c r="B463" t="s">
         <v>42</v>
@@ -17067,9 +17067,9 @@
         <v>940</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
-        <v>44101</v>
+        <v>44805</v>
       </c>
       <c r="B464" t="s">
         <v>39</v>
@@ -17093,9 +17093,9 @@
         <v>942</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
-        <v>44857</v>
+        <v>44236</v>
       </c>
       <c r="B465" t="s">
         <v>39</v>
@@ -17119,9 +17119,9 @@
         <v>944</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
-        <v>44819</v>
+        <v>43864</v>
       </c>
       <c r="B466" t="s">
         <v>42</v>
@@ -17145,9 +17145,9 @@
         <v>946</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
-        <v>43622</v>
+        <v>44817</v>
       </c>
       <c r="B467" t="s">
         <v>20</v>
@@ -17171,9 +17171,9 @@
         <v>948</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
-        <v>43344</v>
+        <v>44057</v>
       </c>
       <c r="B468" t="s">
         <v>42</v>
@@ -17197,9 +17197,9 @@
         <v>950</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>44658</v>
+        <v>43895</v>
       </c>
       <c r="B469" t="s">
         <v>42</v>
@@ -17223,9 +17223,9 @@
         <v>952</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>43440</v>
+        <v>44426</v>
       </c>
       <c r="B470" t="s">
         <v>15</v>
@@ -17249,9 +17249,9 @@
         <v>954</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>44269</v>
+        <v>44387</v>
       </c>
       <c r="B471" t="s">
         <v>45</v>
@@ -17275,9 +17275,9 @@
         <v>956</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>43111</v>
+        <v>43704</v>
       </c>
       <c r="B472" t="s">
         <v>15</v>
@@ -17301,9 +17301,9 @@
         <v>958</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>44050</v>
+        <v>43588</v>
       </c>
       <c r="B473" t="s">
         <v>39</v>
@@ -17324,9 +17324,9 @@
         <v>960</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>44046</v>
+        <v>43618</v>
       </c>
       <c r="B474" t="s">
         <v>39</v>
@@ -17350,9 +17350,9 @@
         <v>962</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>44224</v>
+        <v>43840</v>
       </c>
       <c r="B475" t="s">
         <v>39</v>
@@ -17376,9 +17376,9 @@
         <v>964</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
-        <v>43078</v>
+        <v>43856</v>
       </c>
       <c r="B476" t="s">
         <v>8</v>
@@ -17402,9 +17402,9 @@
         <v>966</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
-        <v>44536</v>
+        <v>44145</v>
       </c>
       <c r="B477" t="s">
         <v>20</v>
@@ -17428,9 +17428,9 @@
         <v>968</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
-        <v>43439</v>
+        <v>43560</v>
       </c>
       <c r="B478" t="s">
         <v>68</v>
@@ -17454,9 +17454,9 @@
         <v>970</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
-        <v>43155</v>
+        <v>43805</v>
       </c>
       <c r="B479" t="s">
         <v>8</v>
@@ -17480,9 +17480,9 @@
         <v>972</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
-        <v>44595</v>
+        <v>43378</v>
       </c>
       <c r="B480" t="s">
         <v>15</v>
@@ -17506,9 +17506,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
-        <v>44112</v>
+        <v>44698</v>
       </c>
       <c r="B481" t="s">
         <v>42</v>
@@ -17532,9 +17532,9 @@
         <v>975</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
-        <v>43189</v>
+        <v>44170</v>
       </c>
       <c r="B482" t="s">
         <v>20</v>
@@ -17558,9 +17558,9 @@
         <v>977</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
-        <v>44954</v>
+        <v>43797</v>
       </c>
       <c r="B483" t="s">
         <v>39</v>
@@ -17584,9 +17584,9 @@
         <v>979</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <v>43145</v>
+        <v>44187</v>
       </c>
       <c r="B484" t="s">
         <v>45</v>
@@ -17610,9 +17610,9 @@
         <v>981</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <v>44716</v>
+        <v>45109</v>
       </c>
       <c r="B485" t="s">
         <v>29</v>
@@ -17636,9 +17636,9 @@
         <v>983</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
-        <v>43624</v>
+        <v>43888</v>
       </c>
       <c r="B486" t="s">
         <v>8</v>
@@ -17662,9 +17662,9 @@
         <v>985</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
-        <v>44209</v>
+        <v>43230</v>
       </c>
       <c r="B487" t="s">
         <v>45</v>
@@ -17688,9 +17688,9 @@
         <v>987</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
-        <v>44364</v>
+        <v>43292</v>
       </c>
       <c r="B488" t="s">
         <v>29</v>
@@ -17714,9 +17714,9 @@
         <v>989</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
-        <v>43722</v>
+        <v>43619</v>
       </c>
       <c r="B489" t="s">
         <v>45</v>
@@ -17737,9 +17737,9 @@
         <v>991</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
-        <v>44080</v>
+        <v>43712</v>
       </c>
       <c r="B490" t="s">
         <v>68</v>
@@ -17763,9 +17763,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
-        <v>44554</v>
+        <v>43698</v>
       </c>
       <c r="B491" t="s">
         <v>42</v>
@@ -17789,9 +17789,9 @@
         <v>994</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
-        <v>44152</v>
+        <v>43764</v>
       </c>
       <c r="B492" t="s">
         <v>8</v>
@@ -17815,9 +17815,9 @@
         <v>996</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
-        <v>44609</v>
+        <v>44463</v>
       </c>
       <c r="B493" t="s">
         <v>15</v>
@@ -17841,9 +17841,9 @@
         <v>998</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>44822</v>
+        <v>43144</v>
       </c>
       <c r="B494" t="s">
         <v>45</v>
@@ -17867,9 +17867,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <v>43493</v>
+        <v>44386</v>
       </c>
       <c r="B495" t="s">
         <v>45</v>
@@ -17893,9 +17893,9 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <v>42955</v>
+        <v>43592</v>
       </c>
       <c r="B496" t="s">
         <v>39</v>
@@ -17919,9 +17919,9 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <v>43925</v>
+        <v>43229</v>
       </c>
       <c r="B497" t="s">
         <v>39</v>
@@ -17945,9 +17945,9 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <v>44506</v>
+        <v>43346</v>
       </c>
       <c r="B498" t="s">
         <v>15</v>
@@ -17971,9 +17971,9 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <v>43327</v>
+        <v>44724</v>
       </c>
       <c r="B499" t="s">
         <v>68</v>
@@ -17997,9 +17997,9 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>43624</v>
+        <v>44420</v>
       </c>
       <c r="B500" t="s">
         <v>45</v>
@@ -18023,9 +18023,9 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <v>42781</v>
+        <v>43320</v>
       </c>
       <c r="B501" t="s">
         <v>29</v>
@@ -18049,9 +18049,9 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>43211</v>
+        <v>44044</v>
       </c>
       <c r="B502" t="s">
         <v>45</v>
@@ -18075,9 +18075,9 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>43280</v>
+        <v>45103</v>
       </c>
       <c r="B503" t="s">
         <v>39</v>
@@ -18101,9 +18101,9 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>42928</v>
+        <v>43809</v>
       </c>
       <c r="B504" t="s">
         <v>42</v>
@@ -18127,9 +18127,9 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <v>43830</v>
+        <v>44219</v>
       </c>
       <c r="B505" t="s">
         <v>29</v>
@@ -18153,9 +18153,9 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>42778</v>
+        <v>43440</v>
       </c>
       <c r="B506" t="s">
         <v>29</v>
@@ -18179,9 +18179,9 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>44887</v>
+        <v>43677</v>
       </c>
       <c r="B507" t="s">
         <v>68</v>
@@ -18205,9 +18205,9 @@
         <v>899</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>43059</v>
+        <v>44712</v>
       </c>
       <c r="B508" t="s">
         <v>15</v>
@@ -18231,9 +18231,9 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>44144</v>
+        <v>43331</v>
       </c>
       <c r="B509" t="s">
         <v>20</v>
@@ -18257,9 +18257,9 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>43984</v>
+        <v>43719</v>
       </c>
       <c r="B510" t="s">
         <v>15</v>
@@ -18283,9 +18283,9 @@
         <v>583</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>44980</v>
+        <v>44942</v>
       </c>
       <c r="B511" t="s">
         <v>45</v>
@@ -18309,9 +18309,9 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>44281</v>
+        <v>44068</v>
       </c>
       <c r="B512" t="s">
         <v>68</v>
@@ -18335,9 +18335,9 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>44116</v>
+        <v>43954</v>
       </c>
       <c r="B513" t="s">
         <v>20</v>
@@ -18361,9 +18361,9 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <v>43878</v>
+        <v>43109</v>
       </c>
       <c r="B514" t="s">
         <v>29</v>
@@ -18387,9 +18387,9 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>43786</v>
+        <v>43276</v>
       </c>
       <c r="B515" t="s">
         <v>15</v>
@@ -18413,9 +18413,9 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <v>44623</v>
+        <v>43752</v>
       </c>
       <c r="B516" t="s">
         <v>42</v>
@@ -18439,9 +18439,9 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>43952</v>
+        <v>44004</v>
       </c>
       <c r="B517" t="s">
         <v>29</v>
@@ -18465,9 +18465,9 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>44131</v>
+        <v>44127</v>
       </c>
       <c r="B518" t="s">
         <v>15</v>
@@ -18491,9 +18491,9 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>43870</v>
+        <v>44233</v>
       </c>
       <c r="B519" t="s">
         <v>42</v>
@@ -18517,9 +18517,9 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>42905</v>
+        <v>44507</v>
       </c>
       <c r="B520" t="s">
         <v>68</v>
@@ -18543,9 +18543,9 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>44216</v>
+        <v>43310</v>
       </c>
       <c r="B521" t="s">
         <v>29</v>
@@ -18569,9 +18569,9 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
-        <v>44804</v>
+        <v>43573</v>
       </c>
       <c r="B522" t="s">
         <v>45</v>
@@ -18595,9 +18595,9 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>44103</v>
+        <v>43828</v>
       </c>
       <c r="B523" t="s">
         <v>68</v>
@@ -18621,9 +18621,9 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
-        <v>43725</v>
+        <v>43353</v>
       </c>
       <c r="B524" t="s">
         <v>45</v>
@@ -18647,9 +18647,9 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>43126</v>
+        <v>44994</v>
       </c>
       <c r="B525" t="s">
         <v>39</v>
@@ -18673,9 +18673,9 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <v>44084</v>
+        <v>45043</v>
       </c>
       <c r="B526" t="s">
         <v>20</v>
@@ -18699,9 +18699,9 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>44429</v>
+        <v>43293</v>
       </c>
       <c r="B527" t="s">
         <v>29</v>
@@ -18725,9 +18725,9 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>44401</v>
+        <v>45087</v>
       </c>
       <c r="B528" t="s">
         <v>20</v>
@@ -18751,9 +18751,9 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>44785</v>
+        <v>44204</v>
       </c>
       <c r="B529" t="s">
         <v>68</v>
@@ -18774,9 +18774,9 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <v>43160</v>
+        <v>43667</v>
       </c>
       <c r="B530" t="s">
         <v>45</v>
@@ -18800,9 +18800,9 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <v>43534</v>
+        <v>43756</v>
       </c>
       <c r="B531" t="s">
         <v>8</v>
@@ -18826,9 +18826,9 @@
         <v>854</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <v>43437</v>
+        <v>43435</v>
       </c>
       <c r="B532" t="s">
         <v>8</v>
@@ -18852,9 +18852,9 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <v>45040</v>
+        <v>45070</v>
       </c>
       <c r="B533" t="s">
         <v>42</v>
@@ -18878,9 +18878,9 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <v>44931</v>
+        <v>43858</v>
       </c>
       <c r="B534" t="s">
         <v>39</v>
@@ -18904,9 +18904,9 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <v>43120</v>
+        <v>44509</v>
       </c>
       <c r="B535" t="s">
         <v>20</v>
@@ -18930,9 +18930,9 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <v>43609</v>
+        <v>43510</v>
       </c>
       <c r="B536" t="s">
         <v>29</v>
@@ -18953,9 +18953,9 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <v>44737</v>
+        <v>44099</v>
       </c>
       <c r="B537" t="s">
         <v>39</v>
@@ -18979,9 +18979,9 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <v>42951</v>
+        <v>43830</v>
       </c>
       <c r="B538" t="s">
         <v>39</v>
@@ -19005,9 +19005,9 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>44396</v>
+        <v>43265</v>
       </c>
       <c r="B539" t="s">
         <v>45</v>
@@ -19031,9 +19031,9 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>43748</v>
+        <v>44619</v>
       </c>
       <c r="B540" t="s">
         <v>42</v>
@@ -19057,9 +19057,9 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <v>44801</v>
+        <v>44848</v>
       </c>
       <c r="B541" t="s">
         <v>68</v>
@@ -19083,9 +19083,9 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
-        <v>43792</v>
+        <v>43539</v>
       </c>
       <c r="B542" t="s">
         <v>45</v>
@@ -19109,9 +19109,9 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
-        <v>43909</v>
+        <v>43756</v>
       </c>
       <c r="B543" t="s">
         <v>68</v>
@@ -19135,9 +19135,9 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
-        <v>43339</v>
+        <v>43701</v>
       </c>
       <c r="B544" t="s">
         <v>20</v>
@@ -19161,9 +19161,9 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
-        <v>42827</v>
+        <v>43230</v>
       </c>
       <c r="B545" t="s">
         <v>45</v>
@@ -19187,9 +19187,9 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
-        <v>42793</v>
+        <v>44524</v>
       </c>
       <c r="B546" t="s">
         <v>68</v>
@@ -19210,9 +19210,9 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
-        <v>42963</v>
+        <v>44832</v>
       </c>
       <c r="B547" t="s">
         <v>45</v>
@@ -19236,9 +19236,9 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
-        <v>43479</v>
+        <v>45126</v>
       </c>
       <c r="B548" t="s">
         <v>68</v>
@@ -19262,9 +19262,9 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
-        <v>44432</v>
+        <v>43864</v>
       </c>
       <c r="B549" t="s">
         <v>15</v>
@@ -19288,9 +19288,9 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
-        <v>43258</v>
+        <v>45067</v>
       </c>
       <c r="B550" t="s">
         <v>20</v>
@@ -19314,9 +19314,9 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
-        <v>43753</v>
+        <v>43275</v>
       </c>
       <c r="B551" t="s">
         <v>29</v>
@@ -19340,9 +19340,9 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
-        <v>44100</v>
+        <v>44151</v>
       </c>
       <c r="B552" t="s">
         <v>15</v>
@@ -19366,9 +19366,9 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
-        <v>42874</v>
+        <v>44265</v>
       </c>
       <c r="B553" t="s">
         <v>8</v>
@@ -19392,9 +19392,9 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
-        <v>44646</v>
+        <v>44250</v>
       </c>
       <c r="B554" t="s">
         <v>20</v>
@@ -19418,9 +19418,9 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
-        <v>43649</v>
+        <v>44312</v>
       </c>
       <c r="B555" t="s">
         <v>39</v>
@@ -19444,9 +19444,9 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
-        <v>45042</v>
+        <v>44317</v>
       </c>
       <c r="B556" t="s">
         <v>29</v>
@@ -19470,9 +19470,9 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
-        <v>43416</v>
+        <v>43267</v>
       </c>
       <c r="B557" t="s">
         <v>20</v>
@@ -19496,9 +19496,9 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
-        <v>44405</v>
+        <v>44745</v>
       </c>
       <c r="B558" t="s">
         <v>15</v>
@@ -19522,9 +19522,9 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
-        <v>44307</v>
+        <v>44101</v>
       </c>
       <c r="B559" t="s">
         <v>15</v>
@@ -19548,9 +19548,9 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
-        <v>42956</v>
+        <v>44980</v>
       </c>
       <c r="B560" t="s">
         <v>39</v>
@@ -19571,9 +19571,9 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
-        <v>43179</v>
+        <v>44548</v>
       </c>
       <c r="B561" t="s">
         <v>68</v>
@@ -19597,9 +19597,9 @@
         <v>723</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
-        <v>44740</v>
+        <v>43139</v>
       </c>
       <c r="B562" t="s">
         <v>20</v>
@@ -19623,9 +19623,9 @@
         <v>631</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
-        <v>43512</v>
+        <v>43544</v>
       </c>
       <c r="B563" t="s">
         <v>15</v>
@@ -19649,9 +19649,9 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
-        <v>44161</v>
+        <v>43324</v>
       </c>
       <c r="B564" t="s">
         <v>39</v>
@@ -19672,9 +19672,9 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
-        <v>43165</v>
+        <v>43118</v>
       </c>
       <c r="B565" t="s">
         <v>39</v>
@@ -19698,9 +19698,9 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="566" spans="1:8">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
-        <v>44227</v>
+        <v>43244</v>
       </c>
       <c r="B566" t="s">
         <v>29</v>
@@ -19721,9 +19721,9 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="567" spans="1:8">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
-        <v>44079</v>
+        <v>44048</v>
       </c>
       <c r="B567" t="s">
         <v>8</v>
@@ -19747,9 +19747,9 @@
         <v>657</v>
       </c>
     </row>
-    <row r="568" spans="1:8">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
-        <v>43097</v>
+        <v>44794</v>
       </c>
       <c r="B568" t="s">
         <v>15</v>
@@ -19773,9 +19773,9 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
-        <v>43648</v>
+        <v>43682</v>
       </c>
       <c r="B569" t="s">
         <v>15</v>
@@ -19799,9 +19799,9 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="570" spans="1:8">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
-        <v>45018</v>
+        <v>44025</v>
       </c>
       <c r="B570" t="s">
         <v>20</v>
@@ -19825,9 +19825,9 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
-        <v>42828</v>
+        <v>45034</v>
       </c>
       <c r="B571" t="s">
         <v>42</v>
@@ -19851,9 +19851,9 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
-        <v>44239</v>
+        <v>43870</v>
       </c>
       <c r="B572" t="s">
         <v>8</v>
@@ -19877,9 +19877,9 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
-        <v>44279</v>
+        <v>44553</v>
       </c>
       <c r="B573" t="s">
         <v>42</v>
@@ -19903,9 +19903,9 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
-        <v>43085</v>
+        <v>44109</v>
       </c>
       <c r="B574" t="s">
         <v>42</v>
@@ -19929,9 +19929,9 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
-        <v>43801</v>
+        <v>43179</v>
       </c>
       <c r="B575" t="s">
         <v>42</v>
@@ -19955,9 +19955,9 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
-        <v>45041</v>
+        <v>44403</v>
       </c>
       <c r="B576" t="s">
         <v>29</v>
@@ -19981,9 +19981,9 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
-        <v>44689</v>
+        <v>44511</v>
       </c>
       <c r="B577" t="s">
         <v>45</v>
@@ -20007,9 +20007,9 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
-        <v>43218</v>
+        <v>44632</v>
       </c>
       <c r="B578" t="s">
         <v>68</v>
@@ -20033,9 +20033,9 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
-        <v>44853</v>
+        <v>44612</v>
       </c>
       <c r="B579" t="s">
         <v>68</v>
@@ -20059,9 +20059,9 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
-        <v>44442</v>
+        <v>44173</v>
       </c>
       <c r="B580" t="s">
         <v>20</v>
@@ -20085,9 +20085,9 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
-        <v>43392</v>
+        <v>43959</v>
       </c>
       <c r="B581" t="s">
         <v>15</v>
@@ -20108,9 +20108,9 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
-        <v>42819</v>
+        <v>44989</v>
       </c>
       <c r="B582" t="s">
         <v>20</v>
@@ -20134,9 +20134,9 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
-        <v>43795</v>
+        <v>44577</v>
       </c>
       <c r="B583" t="s">
         <v>20</v>
@@ -20160,9 +20160,9 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
-        <v>43144</v>
+        <v>43673</v>
       </c>
       <c r="B584" t="s">
         <v>42</v>
@@ -20186,9 +20186,9 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
-        <v>43789</v>
+        <v>44921</v>
       </c>
       <c r="B585" t="s">
         <v>42</v>
@@ -20212,9 +20212,9 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
-        <v>43531</v>
+        <v>43261</v>
       </c>
       <c r="B586" t="s">
         <v>39</v>
@@ -20238,9 +20238,9 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
-        <v>44829</v>
+        <v>44309</v>
       </c>
       <c r="B587" t="s">
         <v>39</v>
@@ -20261,9 +20261,9 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
-        <v>44621</v>
+        <v>44537</v>
       </c>
       <c r="B588" t="s">
         <v>8</v>
@@ -20287,9 +20287,9 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
-        <v>44576</v>
+        <v>43447</v>
       </c>
       <c r="B589" t="s">
         <v>20</v>
@@ -20313,9 +20313,9 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
-        <v>43030</v>
+        <v>43954</v>
       </c>
       <c r="B590" t="s">
         <v>39</v>
@@ -20339,9 +20339,9 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
-        <v>43958</v>
+        <v>45071</v>
       </c>
       <c r="B591" t="s">
         <v>42</v>
@@ -20365,9 +20365,9 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
-        <v>44604</v>
+        <v>44411</v>
       </c>
       <c r="B592" t="s">
         <v>39</v>
@@ -20391,9 +20391,9 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
-        <v>43535</v>
+        <v>44849</v>
       </c>
       <c r="B593" t="s">
         <v>8</v>
@@ -20417,9 +20417,9 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
-        <v>44671</v>
+        <v>45069</v>
       </c>
       <c r="B594" t="s">
         <v>8</v>
@@ -20443,9 +20443,9 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
-        <v>43094</v>
+        <v>43396</v>
       </c>
       <c r="B595" t="s">
         <v>42</v>
@@ -20469,9 +20469,9 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
-        <v>43889</v>
+        <v>44652</v>
       </c>
       <c r="B596" t="s">
         <v>8</v>
@@ -20495,9 +20495,9 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
-        <v>43455</v>
+        <v>44318</v>
       </c>
       <c r="B597" t="s">
         <v>68</v>
@@ -20521,9 +20521,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
-        <v>42975</v>
+        <v>44953</v>
       </c>
       <c r="B598" t="s">
         <v>20</v>
@@ -20547,9 +20547,9 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
-        <v>43599</v>
+        <v>44226</v>
       </c>
       <c r="B599" t="s">
         <v>29</v>
@@ -20573,9 +20573,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
-        <v>42993</v>
+        <v>44468</v>
       </c>
       <c r="B600" t="s">
         <v>8</v>
@@ -20599,9 +20599,9 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
-        <v>44362</v>
+        <v>44794</v>
       </c>
       <c r="B601" t="s">
         <v>39</v>
@@ -20625,9 +20625,9 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
-        <v>44848</v>
+        <v>43800</v>
       </c>
       <c r="B602" t="s">
         <v>8</v>
@@ -20648,9 +20648,9 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="603" spans="1:8">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
-        <v>42869</v>
+        <v>43561</v>
       </c>
       <c r="B603" t="s">
         <v>20</v>
@@ -20674,9 +20674,9 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="604" spans="1:8">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
-        <v>43551</v>
+        <v>44029</v>
       </c>
       <c r="B604" t="s">
         <v>45</v>
@@ -20700,9 +20700,9 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="605" spans="1:8">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
-        <v>42853</v>
+        <v>43766</v>
       </c>
       <c r="B605" t="s">
         <v>8</v>
@@ -20726,9 +20726,9 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
-        <v>43890</v>
+        <v>43309</v>
       </c>
       <c r="B606" t="s">
         <v>45</v>
@@ -20752,9 +20752,9 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="607" spans="1:8">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
-        <v>45045</v>
+        <v>44173</v>
       </c>
       <c r="B607" t="s">
         <v>29</v>
@@ -20778,9 +20778,9 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
-        <v>44766</v>
+        <v>44534</v>
       </c>
       <c r="B608" t="s">
         <v>8</v>
@@ -20804,9 +20804,9 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
-        <v>44152</v>
+        <v>43793</v>
       </c>
       <c r="B609" t="s">
         <v>20</v>
@@ -20830,9 +20830,9 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
-        <v>44703</v>
+        <v>44180</v>
       </c>
       <c r="B610" t="s">
         <v>45</v>
@@ -20856,9 +20856,9 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
-        <v>44561</v>
+        <v>43677</v>
       </c>
       <c r="B611" t="s">
         <v>42</v>
@@ -20882,9 +20882,9 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
-        <v>44094</v>
+        <v>44198</v>
       </c>
       <c r="B612" t="s">
         <v>39</v>
@@ -20908,9 +20908,9 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
-        <v>43332</v>
+        <v>43728</v>
       </c>
       <c r="B613" t="s">
         <v>8</v>
@@ -20934,9 +20934,9 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
-        <v>43810</v>
+        <v>43169</v>
       </c>
       <c r="B614" t="s">
         <v>42</v>
@@ -20960,9 +20960,9 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
-        <v>43316</v>
+        <v>44416</v>
       </c>
       <c r="B615" t="s">
         <v>45</v>
@@ -20986,9 +20986,9 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
-        <v>44371</v>
+        <v>44038</v>
       </c>
       <c r="B616" t="s">
         <v>42</v>
@@ -21012,9 +21012,9 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
-        <v>43874</v>
+        <v>44456</v>
       </c>
       <c r="B617" t="s">
         <v>8</v>
@@ -21035,9 +21035,9 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
-        <v>44848</v>
+        <v>45104</v>
       </c>
       <c r="B618" t="s">
         <v>8</v>
@@ -21061,9 +21061,9 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
-        <v>44655</v>
+        <v>43145</v>
       </c>
       <c r="B619" t="s">
         <v>20</v>
@@ -21084,9 +21084,9 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <v>44189</v>
+        <v>44309</v>
       </c>
       <c r="B620" t="s">
         <v>8</v>
@@ -21110,9 +21110,9 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
-        <v>43956</v>
+        <v>43742</v>
       </c>
       <c r="B621" t="s">
         <v>42</v>
@@ -21136,9 +21136,9 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
-        <v>44518</v>
+        <v>44477</v>
       </c>
       <c r="B622" t="s">
         <v>8</v>
@@ -21162,9 +21162,9 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
-        <v>43912</v>
+        <v>44541</v>
       </c>
       <c r="B623" t="s">
         <v>20</v>
@@ -21185,9 +21185,9 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
-        <v>43015</v>
+        <v>43882</v>
       </c>
       <c r="B624" t="s">
         <v>68</v>
@@ -21208,9 +21208,9 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
-        <v>43978</v>
+        <v>44281</v>
       </c>
       <c r="B625" t="s">
         <v>45</v>
@@ -21231,9 +21231,9 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
-        <v>43700</v>
+        <v>44687</v>
       </c>
       <c r="B626" t="s">
         <v>20</v>
@@ -21254,9 +21254,9 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
-        <v>42827</v>
+        <v>44574</v>
       </c>
       <c r="B627" t="s">
         <v>39</v>
@@ -21277,9 +21277,9 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
-        <v>42781</v>
+        <v>44193</v>
       </c>
       <c r="B628" t="s">
         <v>8</v>
@@ -21300,9 +21300,9 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
-        <v>44026</v>
+        <v>44827</v>
       </c>
       <c r="B629" t="s">
         <v>20</v>
@@ -21323,9 +21323,9 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
-        <v>43145</v>
+        <v>44329</v>
       </c>
       <c r="B630" t="s">
         <v>39</v>
@@ -21349,9 +21349,9 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
-        <v>44610</v>
+        <v>43828</v>
       </c>
       <c r="B631" t="s">
         <v>8</v>
@@ -21375,9 +21375,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
-        <v>44640</v>
+        <v>43951</v>
       </c>
       <c r="B632" t="s">
         <v>39</v>
@@ -21401,9 +21401,9 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
-        <v>44480</v>
+        <v>44691</v>
       </c>
       <c r="B633" t="s">
         <v>45</v>
@@ -21427,9 +21427,9 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
-        <v>44914</v>
+        <v>43536</v>
       </c>
       <c r="B634" t="s">
         <v>29</v>
@@ -21453,9 +21453,9 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
-        <v>43063</v>
+        <v>43831</v>
       </c>
       <c r="B635" t="s">
         <v>42</v>
@@ -21479,9 +21479,9 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
-        <v>44952</v>
+        <v>45013</v>
       </c>
       <c r="B636" t="s">
         <v>20</v>
@@ -21505,9 +21505,9 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
-        <v>42762</v>
+        <v>44088</v>
       </c>
       <c r="B637" t="s">
         <v>15</v>
@@ -21528,9 +21528,9 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
-        <v>44019</v>
+        <v>45056</v>
       </c>
       <c r="B638" t="s">
         <v>45</v>
@@ -21551,9 +21551,9 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
-        <v>43161</v>
+        <v>43152</v>
       </c>
       <c r="B639" t="s">
         <v>42</v>
@@ -21577,9 +21577,9 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="640" spans="1:8">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
-        <v>43779</v>
+        <v>44814</v>
       </c>
       <c r="B640" t="s">
         <v>29</v>
@@ -21603,9 +21603,9 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="641" spans="1:8">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
-        <v>44090</v>
+        <v>45004</v>
       </c>
       <c r="B641" t="s">
         <v>68</v>
@@ -21629,9 +21629,9 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="642" spans="1:8">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
-        <v>42756</v>
+        <v>44273</v>
       </c>
       <c r="B642" t="s">
         <v>39</v>
@@ -21655,9 +21655,9 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
-        <v>44719</v>
+        <v>44797</v>
       </c>
       <c r="B643" t="s">
         <v>8</v>
@@ -21681,9 +21681,9 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="644" spans="1:8">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
-        <v>44178</v>
+        <v>44392</v>
       </c>
       <c r="B644" t="s">
         <v>20</v>
@@ -21707,9 +21707,9 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
-        <v>45009</v>
+        <v>44843</v>
       </c>
       <c r="B645" t="s">
         <v>29</v>
@@ -21733,9 +21733,9 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
-        <v>44234</v>
+        <v>43810</v>
       </c>
       <c r="B646" t="s">
         <v>15</v>
@@ -21759,9 +21759,9 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
-        <v>43940</v>
+        <v>43315</v>
       </c>
       <c r="B647" t="s">
         <v>68</v>
@@ -21785,9 +21785,9 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
-        <v>43333</v>
+        <v>44345</v>
       </c>
       <c r="B648" t="s">
         <v>39</v>
@@ -21811,9 +21811,9 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
-        <v>43072</v>
+        <v>43810</v>
       </c>
       <c r="B649" t="s">
         <v>68</v>
@@ -21837,9 +21837,9 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
-        <v>43060</v>
+        <v>43643</v>
       </c>
       <c r="B650" t="s">
         <v>8</v>
@@ -21863,9 +21863,9 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
-        <v>44972</v>
+        <v>44727</v>
       </c>
       <c r="B651" t="s">
         <v>45</v>
@@ -21889,9 +21889,9 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
-        <v>43624</v>
+        <v>44349</v>
       </c>
       <c r="B652" t="s">
         <v>45</v>
@@ -21912,9 +21912,9 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
-        <v>43351</v>
+        <v>43551</v>
       </c>
       <c r="B653" t="s">
         <v>20</v>
@@ -21935,9 +21935,9 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
-        <v>44466</v>
+        <v>43467</v>
       </c>
       <c r="B654" t="s">
         <v>39</v>
@@ -21958,9 +21958,9 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
-        <v>44328</v>
+        <v>44411</v>
       </c>
       <c r="B655" t="s">
         <v>45</v>
@@ -21984,9 +21984,9 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
-        <v>44631</v>
+        <v>43600</v>
       </c>
       <c r="B656" t="s">
         <v>15</v>
@@ -22007,9 +22007,9 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
-        <v>44168</v>
+        <v>44290</v>
       </c>
       <c r="B657" t="s">
         <v>68</v>
@@ -22033,9 +22033,9 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
-        <v>43791</v>
+        <v>43918</v>
       </c>
       <c r="B658" t="s">
         <v>42</v>
@@ -22056,9 +22056,9 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
-        <v>43294</v>
+        <v>44031</v>
       </c>
       <c r="B659" t="s">
         <v>20</v>
@@ -22082,9 +22082,9 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
-        <v>44298</v>
+        <v>43718</v>
       </c>
       <c r="B660" t="s">
         <v>42</v>
@@ -22108,9 +22108,9 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
-        <v>42923</v>
+        <v>43110</v>
       </c>
       <c r="B661" t="s">
         <v>45</v>
@@ -22134,9 +22134,9 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
-        <v>44650</v>
+        <v>44186</v>
       </c>
       <c r="B662" t="s">
         <v>15</v>
@@ -22160,9 +22160,9 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
-        <v>44981</v>
+        <v>43433</v>
       </c>
       <c r="B663" t="s">
         <v>20</v>
@@ -22186,9 +22186,9 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
-        <v>43154</v>
+        <v>44199</v>
       </c>
       <c r="B664" t="s">
         <v>20</v>
@@ -22212,9 +22212,9 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
-        <v>42957</v>
+        <v>43933</v>
       </c>
       <c r="B665" t="s">
         <v>39</v>
@@ -22238,9 +22238,9 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
-        <v>44204</v>
+        <v>43111</v>
       </c>
       <c r="B666" t="s">
         <v>29</v>
@@ -22264,9 +22264,9 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
-        <v>43775</v>
+        <v>43729</v>
       </c>
       <c r="B667" t="s">
         <v>45</v>
@@ -22290,9 +22290,9 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
-        <v>44836</v>
+        <v>43991</v>
       </c>
       <c r="B668" t="s">
         <v>68</v>
@@ -22316,9 +22316,9 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
-        <v>44335</v>
+        <v>45084</v>
       </c>
       <c r="B669" t="s">
         <v>20</v>
@@ -22342,9 +22342,9 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
-        <v>43238</v>
+        <v>43336</v>
       </c>
       <c r="B670" t="s">
         <v>42</v>
@@ -22368,9 +22368,9 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
-        <v>42838</v>
+        <v>43339</v>
       </c>
       <c r="B671" t="s">
         <v>45</v>
@@ -22394,9 +22394,9 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
-        <v>44762</v>
+        <v>45021</v>
       </c>
       <c r="B672" t="s">
         <v>8</v>
@@ -22420,9 +22420,9 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
-        <v>44059</v>
+        <v>44306</v>
       </c>
       <c r="B673" t="s">
         <v>8</v>
@@ -22443,9 +22443,9 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
-        <v>44216</v>
+        <v>44842</v>
       </c>
       <c r="B674" t="s">
         <v>68</v>
@@ -22469,9 +22469,9 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
-        <v>42953</v>
+        <v>43615</v>
       </c>
       <c r="B675" t="s">
         <v>15</v>
@@ -22495,9 +22495,9 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
-        <v>43156</v>
+        <v>43833</v>
       </c>
       <c r="B676" t="s">
         <v>39</v>
@@ -22521,9 +22521,9 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="677" spans="1:8">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
-        <v>44064</v>
+        <v>44183</v>
       </c>
       <c r="B677" t="s">
         <v>15</v>
@@ -22547,9 +22547,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="678" spans="1:8">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
-        <v>43110</v>
+        <v>44295</v>
       </c>
       <c r="B678" t="s">
         <v>42</v>
@@ -22573,9 +22573,9 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="679" spans="1:8">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
-        <v>43265</v>
+        <v>44821</v>
       </c>
       <c r="B679" t="s">
         <v>15</v>
@@ -22599,9 +22599,9 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
-        <v>42880</v>
+        <v>43223</v>
       </c>
       <c r="B680" t="s">
         <v>8</v>
@@ -22625,9 +22625,9 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="681" spans="1:8">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
-        <v>42789</v>
+        <v>44393</v>
       </c>
       <c r="B681" t="s">
         <v>29</v>
@@ -22651,9 +22651,9 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
-        <v>44589</v>
+        <v>44506</v>
       </c>
       <c r="B682" t="s">
         <v>45</v>
@@ -22677,9 +22677,9 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
-        <v>43742</v>
+        <v>44332</v>
       </c>
       <c r="B683" t="s">
         <v>45</v>
@@ -22703,9 +22703,9 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
-        <v>42850</v>
+        <v>44695</v>
       </c>
       <c r="B684" t="s">
         <v>42</v>
@@ -22729,9 +22729,9 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
-        <v>43866</v>
+        <v>44384</v>
       </c>
       <c r="B685" t="s">
         <v>15</v>
@@ -22755,9 +22755,9 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
-        <v>43073</v>
+        <v>43139</v>
       </c>
       <c r="B686" t="s">
         <v>68</v>
@@ -22781,9 +22781,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
-        <v>44018</v>
+        <v>44226</v>
       </c>
       <c r="B687" t="s">
         <v>15</v>
@@ -22804,9 +22804,9 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
-        <v>44831</v>
+        <v>44107</v>
       </c>
       <c r="B688" t="s">
         <v>68</v>
@@ -22830,9 +22830,9 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
-        <v>43441</v>
+        <v>43211</v>
       </c>
       <c r="B689" t="s">
         <v>68</v>
@@ -22856,9 +22856,9 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
-        <v>43809</v>
+        <v>43111</v>
       </c>
       <c r="B690" t="s">
         <v>42</v>
@@ -22882,9 +22882,9 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
-        <v>44564</v>
+        <v>43786</v>
       </c>
       <c r="B691" t="s">
         <v>68</v>
@@ -22905,9 +22905,9 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
-        <v>43924</v>
+        <v>43412</v>
       </c>
       <c r="B692" t="s">
         <v>8</v>
@@ -22931,9 +22931,9 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
-        <v>44256</v>
+        <v>44764</v>
       </c>
       <c r="B693" t="s">
         <v>42</v>
@@ -22954,9 +22954,9 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
-        <v>44445</v>
+        <v>45080</v>
       </c>
       <c r="B694" t="s">
         <v>39</v>
@@ -22980,9 +22980,9 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
-        <v>43709</v>
+        <v>43107</v>
       </c>
       <c r="B695" t="s">
         <v>20</v>
@@ -23006,9 +23006,9 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
-        <v>45028</v>
+        <v>45118</v>
       </c>
       <c r="B696" t="s">
         <v>20</v>
@@ -23032,9 +23032,9 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
-        <v>43074</v>
+        <v>43717</v>
       </c>
       <c r="B697" t="s">
         <v>68</v>
@@ -23058,9 +23058,9 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
-        <v>44466</v>
+        <v>45113</v>
       </c>
       <c r="B698" t="s">
         <v>42</v>
@@ -23084,9 +23084,9 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
-        <v>44481</v>
+        <v>44098</v>
       </c>
       <c r="B699" t="s">
         <v>45</v>
@@ -23110,9 +23110,9 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
-        <v>42869</v>
+        <v>43226</v>
       </c>
       <c r="B700" t="s">
         <v>29</v>
